--- a/BackTest/2020-01-12 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-12 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,6 +543,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -577,6 +585,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,6 +629,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -655,6 +665,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -696,6 +707,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -735,6 +747,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -774,6 +787,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -813,6 +827,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -852,6 +867,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -893,6 +909,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -932,6 +949,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -971,6 +989,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1010,6 +1029,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1049,6 +1069,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1088,6 +1109,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1127,6 +1149,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1168,6 +1191,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1207,6 +1231,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1248,6 +1273,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1287,6 +1313,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1328,6 +1355,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1369,6 +1397,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1410,6 +1439,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1451,6 +1481,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1492,6 +1523,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1531,6 +1563,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1570,6 +1603,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1609,6 +1643,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1648,6 +1683,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1687,6 +1723,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1726,6 +1763,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1765,6 +1803,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1804,6 +1843,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1843,6 +1883,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1882,6 +1923,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1921,6 +1963,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1962,6 +2005,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2001,6 +2045,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2040,6 +2085,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2079,6 +2125,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2118,6 +2165,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2157,6 +2205,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2196,6 +2245,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2235,6 +2285,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2274,6 +2325,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2315,6 +2367,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2356,6 +2409,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2395,6 +2449,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2434,6 +2489,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2473,6 +2529,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2512,6 +2569,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2551,6 +2609,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2590,6 +2649,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2629,6 +2689,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2668,6 +2729,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2707,6 +2769,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2746,6 +2809,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2785,6 +2849,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2824,6 +2889,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2863,6 +2929,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2902,6 +2969,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2941,6 +3009,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2980,6 +3049,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3019,6 +3089,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3058,6 +3129,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3097,6 +3169,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3136,6 +3209,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3175,6 +3249,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3214,6 +3289,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3253,6 +3329,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3292,6 +3369,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3331,6 +3409,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3370,6 +3449,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3409,6 +3489,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3448,6 +3529,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3487,6 +3569,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3526,6 +3609,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3565,6 +3649,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3604,6 +3689,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3643,6 +3729,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3682,6 +3769,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3721,6 +3809,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3760,6 +3849,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3799,6 +3889,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3838,6 +3929,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3865,17 +3957,18 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
+        <v>1.00758158444127</v>
       </c>
     </row>
     <row r="90">
@@ -3904,18 +3997,15 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3947,12 +4037,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3980,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3988,6 +4077,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4015,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4023,6 +4113,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4058,6 +4149,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4093,6 +4185,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4128,6 +4221,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4163,6 +4257,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4190,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4198,6 +4293,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4225,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4233,6 +4329,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4260,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4268,6 +4365,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4295,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4303,6 +4401,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4338,6 +4437,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4373,6 +4473,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4408,6 +4509,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4443,6 +4545,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4478,6 +4581,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4513,6 +4617,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4548,6 +4653,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4583,6 +4689,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4610,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4618,6 +4725,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4645,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4653,6 +4761,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4680,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4688,6 +4797,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4723,6 +4833,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4750,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4758,6 +4869,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4793,6 +4905,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4820,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4828,6 +4941,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4855,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4863,6 +4977,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4890,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4898,6 +5013,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4925,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4933,6 +5049,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-12 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>910.1</v>
+        <v>925</v>
       </c>
       <c r="C2" t="n">
-        <v>910.1</v>
+        <v>925</v>
       </c>
       <c r="D2" t="n">
-        <v>910.1</v>
+        <v>925</v>
       </c>
       <c r="E2" t="n">
-        <v>910.1</v>
+        <v>925</v>
       </c>
       <c r="F2" t="n">
-        <v>60.4329</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>-25097.85362733001</v>
+        <v>-14140.05952733</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>911</v>
+        <v>924.6</v>
       </c>
       <c r="C3" t="n">
-        <v>911</v>
+        <v>924.6</v>
       </c>
       <c r="D3" t="n">
-        <v>911</v>
+        <v>924.6</v>
       </c>
       <c r="E3" t="n">
-        <v>911</v>
+        <v>924.6</v>
       </c>
       <c r="F3" t="n">
-        <v>37.9571</v>
+        <v>779.7413</v>
       </c>
       <c r="G3" t="n">
-        <v>-25059.89652733001</v>
+        <v>-14919.80082733</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,35 +510,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="C4" t="n">
-        <v>913</v>
+        <v>920.3</v>
       </c>
       <c r="D4" t="n">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="E4" t="n">
-        <v>913</v>
+        <v>920.3</v>
       </c>
       <c r="F4" t="n">
-        <v>18.0593</v>
+        <v>866.8</v>
       </c>
       <c r="G4" t="n">
-        <v>-25041.83722733001</v>
+        <v>-15786.60082733</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>911</v>
-      </c>
-      <c r="K4" t="n">
-        <v>911</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -550,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>914</v>
+        <v>920.3</v>
       </c>
       <c r="C5" t="n">
-        <v>917</v>
+        <v>920.3</v>
       </c>
       <c r="D5" t="n">
-        <v>917</v>
+        <v>920.3</v>
       </c>
       <c r="E5" t="n">
-        <v>914</v>
+        <v>920.3</v>
       </c>
       <c r="F5" t="n">
-        <v>18.6013</v>
+        <v>903.3176999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>-25023.23592733001</v>
+        <v>-15786.60082733</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -574,14 +570,8 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>911</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -592,40 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="C6" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="D6" t="n">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="E6" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="F6" t="n">
-        <v>19.8807</v>
+        <v>408.381</v>
       </c>
       <c r="G6" t="n">
-        <v>-25043.11662733001</v>
+        <v>-16194.98182733</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>917</v>
-      </c>
-      <c r="K6" t="n">
-        <v>911</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -636,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>912.1</v>
+        <v>917</v>
       </c>
       <c r="C7" t="n">
-        <v>912.1</v>
+        <v>917</v>
       </c>
       <c r="D7" t="n">
-        <v>912.1</v>
+        <v>917</v>
       </c>
       <c r="E7" t="n">
-        <v>912.1</v>
+        <v>917</v>
       </c>
       <c r="F7" t="n">
-        <v>80.16970000000001</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>-25123.28632733001</v>
+        <v>-16194.98182733</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -672,38 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>912.1</v>
+        <v>917</v>
       </c>
       <c r="C8" t="n">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="D8" t="n">
-        <v>912.1</v>
+        <v>917</v>
       </c>
       <c r="E8" t="n">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="F8" t="n">
-        <v>84.05719999999999</v>
+        <v>5.1516</v>
       </c>
       <c r="G8" t="n">
-        <v>-25207.34352733001</v>
+        <v>-16194.98182733</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>912.1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -714,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="C9" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="D9" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="E9" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="F9" t="n">
-        <v>356.5428</v>
+        <v>771.9129</v>
       </c>
       <c r="G9" t="n">
-        <v>-24850.80072733001</v>
+        <v>-16194.98182733</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -739,11 +715,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -754,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C10" t="n">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="D10" t="n">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="E10" t="n">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="F10" t="n">
-        <v>34.1182</v>
+        <v>892.3035</v>
       </c>
       <c r="G10" t="n">
-        <v>-24816.68252733001</v>
+        <v>-15302.67832733</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -779,11 +751,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -794,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>918</v>
+      </c>
+      <c r="C11" t="n">
         <v>917</v>
       </c>
-      <c r="C11" t="n">
-        <v>919</v>
-      </c>
       <c r="D11" t="n">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E11" t="n">
         <v>917</v>
       </c>
       <c r="F11" t="n">
-        <v>85.59999999999999</v>
+        <v>373.0191</v>
       </c>
       <c r="G11" t="n">
-        <v>-24731.08252733001</v>
+        <v>-15675.69742733</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -819,11 +787,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -834,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917</v>
+        <v>923.9</v>
       </c>
       <c r="C12" t="n">
-        <v>917</v>
+        <v>923.9</v>
       </c>
       <c r="D12" t="n">
-        <v>917</v>
+        <v>923.9</v>
       </c>
       <c r="E12" t="n">
-        <v>917</v>
+        <v>923.9</v>
       </c>
       <c r="F12" t="n">
-        <v>136.9311</v>
+        <v>3.9778</v>
       </c>
       <c r="G12" t="n">
-        <v>-24868.01362733001</v>
+        <v>-15671.71962733</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -859,11 +823,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -874,38 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C13" t="n">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D13" t="n">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E13" t="n">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F13" t="n">
-        <v>106.1469</v>
+        <v>52.7</v>
       </c>
       <c r="G13" t="n">
-        <v>-24761.86672733001</v>
+        <v>-15724.41962733</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>917</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -916,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>919.9</v>
+        <v>917</v>
       </c>
       <c r="C14" t="n">
-        <v>919.9</v>
+        <v>917</v>
       </c>
       <c r="D14" t="n">
-        <v>919.9</v>
+        <v>917</v>
       </c>
       <c r="E14" t="n">
-        <v>919.9</v>
+        <v>917</v>
       </c>
       <c r="F14" t="n">
-        <v>225</v>
+        <v>106.986</v>
       </c>
       <c r="G14" t="n">
-        <v>-24986.86672733001</v>
+        <v>-15831.40562733</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -941,11 +895,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -956,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="C15" t="n">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="D15" t="n">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="E15" t="n">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F15" t="n">
-        <v>215.8720507</v>
+        <v>570.41</v>
       </c>
       <c r="G15" t="n">
-        <v>-24770.99467663001</v>
+        <v>-16401.81562733</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -981,11 +931,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -996,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>925.9</v>
+        <v>911.2</v>
       </c>
       <c r="C16" t="n">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="D16" t="n">
-        <v>926</v>
+        <v>911.2</v>
       </c>
       <c r="E16" t="n">
-        <v>925.9</v>
+        <v>910</v>
       </c>
       <c r="F16" t="n">
-        <v>269.9834874</v>
+        <v>1243.0674</v>
       </c>
       <c r="G16" t="n">
-        <v>-25040.97816403001</v>
+        <v>-17644.88302733</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1021,11 +967,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1036,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="C17" t="n">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="D17" t="n">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="E17" t="n">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="F17" t="n">
-        <v>5.5688</v>
+        <v>51.5676</v>
       </c>
       <c r="G17" t="n">
-        <v>-25040.97816403001</v>
+        <v>-17644.88302733</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1061,11 +1003,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1076,34 +1014,36 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>928</v>
+        <v>910</v>
       </c>
       <c r="C18" t="n">
-        <v>928</v>
+        <v>909.1</v>
       </c>
       <c r="D18" t="n">
-        <v>928</v>
+        <v>910</v>
       </c>
       <c r="E18" t="n">
-        <v>928</v>
+        <v>909.1</v>
       </c>
       <c r="F18" t="n">
-        <v>60.2034</v>
+        <v>575.4208</v>
       </c>
       <c r="G18" t="n">
-        <v>-24980.77476403001</v>
+        <v>-18220.30382733</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>910</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1116,30 +1056,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="C19" t="n">
-        <v>934.9</v>
+        <v>915</v>
       </c>
       <c r="D19" t="n">
-        <v>934.9</v>
+        <v>915</v>
       </c>
       <c r="E19" t="n">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="F19" t="n">
-        <v>748.9381</v>
+        <v>481.4503</v>
       </c>
       <c r="G19" t="n">
-        <v>-24231.83666403002</v>
+        <v>-17738.85352733</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>909.1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
@@ -1156,22 +1098,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>932</v>
+        <v>915</v>
       </c>
       <c r="C20" t="n">
-        <v>932</v>
+        <v>915</v>
       </c>
       <c r="D20" t="n">
-        <v>932</v>
+        <v>915</v>
       </c>
       <c r="E20" t="n">
-        <v>932</v>
+        <v>915</v>
       </c>
       <c r="F20" t="n">
-        <v>210</v>
+        <v>1.2</v>
       </c>
       <c r="G20" t="n">
-        <v>-24441.83666403002</v>
+        <v>-17738.85352733</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1180,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>934.9</v>
+        <v>915</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
@@ -1198,30 +1140,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="C21" t="n">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="D21" t="n">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="E21" t="n">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="F21" t="n">
-        <v>53.8214</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-24495.65806403002</v>
+        <v>-17728.85352733</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>915</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1238,22 +1182,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="C22" t="n">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="D22" t="n">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="E22" t="n">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="F22" t="n">
-        <v>26</v>
+        <v>784.6900000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>-24495.65806403002</v>
+        <v>-16944.16352733</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1262,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
@@ -1280,22 +1224,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>929</v>
+        <v>926.9</v>
       </c>
       <c r="C23" t="n">
-        <v>929</v>
+        <v>926.9</v>
       </c>
       <c r="D23" t="n">
-        <v>929</v>
+        <v>926.9</v>
       </c>
       <c r="E23" t="n">
-        <v>929</v>
+        <v>926.9</v>
       </c>
       <c r="F23" t="n">
-        <v>460.1843</v>
+        <v>3910.1487</v>
       </c>
       <c r="G23" t="n">
-        <v>-24495.65806403002</v>
+        <v>-20854.31222733</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1320,32 +1264,30 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>930.9</v>
+        <v>920</v>
       </c>
       <c r="C24" t="n">
-        <v>930.9</v>
+        <v>919</v>
       </c>
       <c r="D24" t="n">
-        <v>930.9</v>
+        <v>920</v>
       </c>
       <c r="E24" t="n">
-        <v>930.9</v>
+        <v>919</v>
       </c>
       <c r="F24" t="n">
-        <v>1160.4329</v>
+        <v>22.347</v>
       </c>
       <c r="G24" t="n">
-        <v>-23335.22516403002</v>
+        <v>-20876.65922733</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>929</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -1362,32 +1304,30 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>930.9</v>
+        <v>918</v>
       </c>
       <c r="C25" t="n">
-        <v>930.9</v>
+        <v>913</v>
       </c>
       <c r="D25" t="n">
-        <v>930.9</v>
+        <v>918</v>
       </c>
       <c r="E25" t="n">
-        <v>930.9</v>
+        <v>913</v>
       </c>
       <c r="F25" t="n">
-        <v>412.9663</v>
+        <v>3902.1487</v>
       </c>
       <c r="G25" t="n">
-        <v>-23335.22516403002</v>
+        <v>-24778.80792733001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>930.9</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -1404,32 +1344,30 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>934</v>
+        <v>915</v>
       </c>
       <c r="C26" t="n">
-        <v>934</v>
+        <v>915</v>
       </c>
       <c r="D26" t="n">
-        <v>934</v>
+        <v>915</v>
       </c>
       <c r="E26" t="n">
-        <v>934</v>
+        <v>915</v>
       </c>
       <c r="F26" t="n">
-        <v>352.4511</v>
+        <v>62.1</v>
       </c>
       <c r="G26" t="n">
-        <v>-22982.77406403002</v>
+        <v>-24716.70792733001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>930.9</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -1446,32 +1384,30 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="C27" t="n">
-        <v>937</v>
+        <v>917</v>
       </c>
       <c r="D27" t="n">
-        <v>937</v>
+        <v>917</v>
       </c>
       <c r="E27" t="n">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="F27" t="n">
-        <v>36.4377</v>
+        <v>1.4</v>
       </c>
       <c r="G27" t="n">
-        <v>-22946.33636403002</v>
+        <v>-24715.30792733001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>934</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -1488,32 +1424,30 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>933</v>
+        <v>913</v>
       </c>
       <c r="C28" t="n">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="D28" t="n">
-        <v>933</v>
+        <v>913</v>
       </c>
       <c r="E28" t="n">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="F28" t="n">
-        <v>1.2959</v>
+        <v>329.6271</v>
       </c>
       <c r="G28" t="n">
-        <v>-22947.63226403002</v>
+        <v>-25044.93502733001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>937</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
@@ -1530,22 +1464,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>937</v>
+        <v>910.1</v>
       </c>
       <c r="C29" t="n">
-        <v>937</v>
+        <v>910.1</v>
       </c>
       <c r="D29" t="n">
-        <v>937</v>
+        <v>910.1</v>
       </c>
       <c r="E29" t="n">
-        <v>937</v>
+        <v>910.1</v>
       </c>
       <c r="F29" t="n">
-        <v>340.0135</v>
+        <v>51.2315</v>
       </c>
       <c r="G29" t="n">
-        <v>-22607.61876403002</v>
+        <v>-25096.16652733001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1570,22 +1504,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>940</v>
+        <v>910.1</v>
       </c>
       <c r="C30" t="n">
-        <v>940</v>
+        <v>910</v>
       </c>
       <c r="D30" t="n">
-        <v>940</v>
+        <v>910.1</v>
       </c>
       <c r="E30" t="n">
-        <v>940</v>
+        <v>910</v>
       </c>
       <c r="F30" t="n">
-        <v>2121.5253</v>
+        <v>62.12</v>
       </c>
       <c r="G30" t="n">
-        <v>-20486.09346403002</v>
+        <v>-25158.28652733001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1610,30 +1544,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>941</v>
+        <v>910.1</v>
       </c>
       <c r="C31" t="n">
-        <v>941</v>
+        <v>910.1</v>
       </c>
       <c r="D31" t="n">
-        <v>941</v>
+        <v>910.1</v>
       </c>
       <c r="E31" t="n">
-        <v>941</v>
+        <v>910.1</v>
       </c>
       <c r="F31" t="n">
-        <v>5.2849</v>
+        <v>60.4329</v>
       </c>
       <c r="G31" t="n">
-        <v>-20480.80856403002</v>
+        <v>-25097.85362733001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>910</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -1650,30 +1586,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>935.1</v>
+        <v>911</v>
       </c>
       <c r="C32" t="n">
-        <v>942</v>
+        <v>911</v>
       </c>
       <c r="D32" t="n">
-        <v>942</v>
+        <v>911</v>
       </c>
       <c r="E32" t="n">
-        <v>933.5</v>
+        <v>911</v>
       </c>
       <c r="F32" t="n">
-        <v>1231.2942</v>
+        <v>37.9571</v>
       </c>
       <c r="G32" t="n">
-        <v>-19249.51436403002</v>
+        <v>-25059.89652733001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>910.1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -1690,30 +1628,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>943</v>
+        <v>913</v>
       </c>
       <c r="C33" t="n">
-        <v>943</v>
+        <v>913</v>
       </c>
       <c r="D33" t="n">
-        <v>943</v>
+        <v>913</v>
       </c>
       <c r="E33" t="n">
-        <v>943</v>
+        <v>913</v>
       </c>
       <c r="F33" t="n">
-        <v>161.1789</v>
+        <v>18.0593</v>
       </c>
       <c r="G33" t="n">
-        <v>-19088.33546403002</v>
+        <v>-25041.83722733001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>911</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
@@ -1730,30 +1670,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>944</v>
+        <v>914</v>
       </c>
       <c r="C34" t="n">
-        <v>944</v>
+        <v>917</v>
       </c>
       <c r="D34" t="n">
-        <v>944</v>
+        <v>917</v>
       </c>
       <c r="E34" t="n">
-        <v>944</v>
+        <v>914</v>
       </c>
       <c r="F34" t="n">
-        <v>314.4223</v>
+        <v>18.6013</v>
       </c>
       <c r="G34" t="n">
-        <v>-18773.91316403002</v>
+        <v>-25023.23592733001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>913</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
@@ -1770,30 +1712,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>945</v>
+        <v>913</v>
       </c>
       <c r="C35" t="n">
-        <v>945</v>
+        <v>913</v>
       </c>
       <c r="D35" t="n">
-        <v>945</v>
+        <v>913</v>
       </c>
       <c r="E35" t="n">
-        <v>945</v>
+        <v>913</v>
       </c>
       <c r="F35" t="n">
-        <v>293.9951</v>
+        <v>19.8807</v>
       </c>
       <c r="G35" t="n">
-        <v>-18479.91806403002</v>
+        <v>-25043.11662733001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>917</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
@@ -1810,30 +1754,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>944</v>
+        <v>912.1</v>
       </c>
       <c r="C36" t="n">
-        <v>944</v>
+        <v>912.1</v>
       </c>
       <c r="D36" t="n">
-        <v>944</v>
+        <v>912.1</v>
       </c>
       <c r="E36" t="n">
-        <v>944</v>
+        <v>912.1</v>
       </c>
       <c r="F36" t="n">
-        <v>1340.0369</v>
+        <v>80.16970000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>-19819.95496403002</v>
+        <v>-25123.28632733001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>913</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1850,30 +1796,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>945.9</v>
+        <v>912.1</v>
       </c>
       <c r="C37" t="n">
-        <v>946</v>
+        <v>912</v>
       </c>
       <c r="D37" t="n">
-        <v>946</v>
+        <v>912.1</v>
       </c>
       <c r="E37" t="n">
-        <v>945.9</v>
+        <v>912</v>
       </c>
       <c r="F37" t="n">
-        <v>238.628</v>
+        <v>84.05719999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>-19581.32696403002</v>
+        <v>-25207.34352733001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>912.1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1890,30 +1838,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>946.9</v>
+        <v>913</v>
       </c>
       <c r="C38" t="n">
-        <v>947</v>
+        <v>913</v>
       </c>
       <c r="D38" t="n">
-        <v>947</v>
+        <v>913</v>
       </c>
       <c r="E38" t="n">
-        <v>946.9</v>
+        <v>913</v>
       </c>
       <c r="F38" t="n">
-        <v>358.8793</v>
+        <v>356.5428</v>
       </c>
       <c r="G38" t="n">
-        <v>-19222.44766403002</v>
+        <v>-24850.80072733001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>912</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1930,30 +1880,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>948</v>
+        <v>915</v>
       </c>
       <c r="C39" t="n">
-        <v>948</v>
+        <v>915</v>
       </c>
       <c r="D39" t="n">
-        <v>948</v>
+        <v>915</v>
       </c>
       <c r="E39" t="n">
-        <v>948</v>
+        <v>915</v>
       </c>
       <c r="F39" t="n">
-        <v>120.8037</v>
+        <v>34.1182</v>
       </c>
       <c r="G39" t="n">
-        <v>-19101.64396403002</v>
+        <v>-24816.68252733001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>913</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -1970,22 +1922,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>948.9</v>
+        <v>917</v>
       </c>
       <c r="C40" t="n">
-        <v>949</v>
+        <v>919</v>
       </c>
       <c r="D40" t="n">
-        <v>949</v>
+        <v>919</v>
       </c>
       <c r="E40" t="n">
-        <v>948.9</v>
+        <v>917</v>
       </c>
       <c r="F40" t="n">
-        <v>221.4277</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>-18880.21626403002</v>
+        <v>-24731.08252733001</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1994,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>948</v>
+        <v>915</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
@@ -2012,30 +1964,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>949</v>
+        <v>917</v>
       </c>
       <c r="C41" t="n">
-        <v>949</v>
+        <v>917</v>
       </c>
       <c r="D41" t="n">
-        <v>949</v>
+        <v>917</v>
       </c>
       <c r="E41" t="n">
-        <v>949</v>
+        <v>917</v>
       </c>
       <c r="F41" t="n">
-        <v>36.6401</v>
+        <v>136.9311</v>
       </c>
       <c r="G41" t="n">
-        <v>-18880.21626403002</v>
+        <v>-24868.01362733001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>919</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -2052,30 +2006,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>950</v>
+        <v>920</v>
       </c>
       <c r="C42" t="n">
-        <v>950.1</v>
+        <v>920</v>
       </c>
       <c r="D42" t="n">
-        <v>950.1</v>
+        <v>920</v>
       </c>
       <c r="E42" t="n">
-        <v>950</v>
+        <v>920</v>
       </c>
       <c r="F42" t="n">
-        <v>1441.6513</v>
+        <v>106.1469</v>
       </c>
       <c r="G42" t="n">
-        <v>-17438.56496403002</v>
+        <v>-24761.86672733001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>917</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -2092,30 +2048,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>950.1</v>
+        <v>919.9</v>
       </c>
       <c r="C43" t="n">
-        <v>950.1</v>
+        <v>919.9</v>
       </c>
       <c r="D43" t="n">
-        <v>950.1</v>
+        <v>919.9</v>
       </c>
       <c r="E43" t="n">
-        <v>950.1</v>
+        <v>919.9</v>
       </c>
       <c r="F43" t="n">
-        <v>95.7987</v>
+        <v>225</v>
       </c>
       <c r="G43" t="n">
-        <v>-17438.56496403002</v>
+        <v>-24986.86672733001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>920</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -2132,30 +2090,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>950.1</v>
+        <v>921</v>
       </c>
       <c r="C44" t="n">
-        <v>950.1</v>
+        <v>927</v>
       </c>
       <c r="D44" t="n">
-        <v>950.1</v>
+        <v>927</v>
       </c>
       <c r="E44" t="n">
-        <v>950.1</v>
+        <v>921</v>
       </c>
       <c r="F44" t="n">
-        <v>1676.3252</v>
+        <v>215.8720507</v>
       </c>
       <c r="G44" t="n">
-        <v>-17438.56496403002</v>
+        <v>-24770.99467663001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>919.9</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2172,30 +2132,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>950.8</v>
+        <v>925.9</v>
       </c>
       <c r="C45" t="n">
-        <v>951.5</v>
+        <v>926</v>
       </c>
       <c r="D45" t="n">
-        <v>951.5</v>
+        <v>926</v>
       </c>
       <c r="E45" t="n">
-        <v>950.8</v>
+        <v>925.9</v>
       </c>
       <c r="F45" t="n">
-        <v>249.4577</v>
+        <v>269.9834874</v>
       </c>
       <c r="G45" t="n">
-        <v>-17189.10726403002</v>
+        <v>-25040.97816403001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>927</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2212,30 +2174,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>951.5</v>
+        <v>926</v>
       </c>
       <c r="C46" t="n">
-        <v>952.7</v>
+        <v>926</v>
       </c>
       <c r="D46" t="n">
-        <v>952.7</v>
+        <v>926</v>
       </c>
       <c r="E46" t="n">
-        <v>951.5</v>
+        <v>926</v>
       </c>
       <c r="F46" t="n">
-        <v>159.5753</v>
+        <v>5.5688</v>
       </c>
       <c r="G46" t="n">
-        <v>-17029.53196403002</v>
+        <v>-25040.97816403001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>926</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
@@ -2252,22 +2216,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>952.7</v>
+        <v>928</v>
       </c>
       <c r="C47" t="n">
-        <v>954</v>
+        <v>928</v>
       </c>
       <c r="D47" t="n">
-        <v>954</v>
+        <v>928</v>
       </c>
       <c r="E47" t="n">
-        <v>952.7</v>
+        <v>928</v>
       </c>
       <c r="F47" t="n">
-        <v>129.7869</v>
+        <v>60.2034</v>
       </c>
       <c r="G47" t="n">
-        <v>-16899.74506403002</v>
+        <v>-24980.77476403001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2292,22 +2256,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>954</v>
+        <v>928</v>
       </c>
       <c r="C48" t="n">
-        <v>954</v>
+        <v>934.9</v>
       </c>
       <c r="D48" t="n">
-        <v>957</v>
+        <v>934.9</v>
       </c>
       <c r="E48" t="n">
-        <v>953</v>
+        <v>928</v>
       </c>
       <c r="F48" t="n">
-        <v>254.4326</v>
+        <v>748.9381</v>
       </c>
       <c r="G48" t="n">
-        <v>-16899.74506403002</v>
+        <v>-24231.83666403002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2332,32 +2296,30 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>959.4</v>
+        <v>932</v>
       </c>
       <c r="C49" t="n">
-        <v>959.4</v>
+        <v>932</v>
       </c>
       <c r="D49" t="n">
-        <v>959.4</v>
+        <v>932</v>
       </c>
       <c r="E49" t="n">
-        <v>958.4</v>
+        <v>932</v>
       </c>
       <c r="F49" t="n">
-        <v>130.2769</v>
+        <v>210</v>
       </c>
       <c r="G49" t="n">
-        <v>-16769.46816403002</v>
+        <v>-24441.83666403002</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>954</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
@@ -2374,32 +2336,30 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>959.4</v>
+        <v>929</v>
       </c>
       <c r="C50" t="n">
-        <v>969</v>
+        <v>929</v>
       </c>
       <c r="D50" t="n">
-        <v>969</v>
+        <v>929</v>
       </c>
       <c r="E50" t="n">
-        <v>959.4</v>
+        <v>929</v>
       </c>
       <c r="F50" t="n">
-        <v>2950.13930082</v>
+        <v>53.8214</v>
       </c>
       <c r="G50" t="n">
-        <v>-13819.32886321002</v>
+        <v>-24495.65806403002</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>959.4</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2416,22 +2376,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>967</v>
+        <v>929</v>
       </c>
       <c r="C51" t="n">
-        <v>970.9</v>
+        <v>929</v>
       </c>
       <c r="D51" t="n">
-        <v>970.9</v>
+        <v>929</v>
       </c>
       <c r="E51" t="n">
-        <v>966</v>
+        <v>929</v>
       </c>
       <c r="F51" t="n">
-        <v>5601.16512294</v>
+        <v>26</v>
       </c>
       <c r="G51" t="n">
-        <v>-8218.163740270018</v>
+        <v>-24495.65806403002</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2456,22 +2416,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>968.9</v>
+        <v>929</v>
       </c>
       <c r="C52" t="n">
-        <v>968.9</v>
+        <v>929</v>
       </c>
       <c r="D52" t="n">
-        <v>968.9</v>
+        <v>929</v>
       </c>
       <c r="E52" t="n">
-        <v>968.9</v>
+        <v>929</v>
       </c>
       <c r="F52" t="n">
-        <v>6.7804</v>
+        <v>460.1843</v>
       </c>
       <c r="G52" t="n">
-        <v>-8224.944140270018</v>
+        <v>-24495.65806403002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2496,22 +2456,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>961</v>
+        <v>930.9</v>
       </c>
       <c r="C53" t="n">
-        <v>952</v>
+        <v>930.9</v>
       </c>
       <c r="D53" t="n">
-        <v>961</v>
+        <v>930.9</v>
       </c>
       <c r="E53" t="n">
-        <v>952</v>
+        <v>930.9</v>
       </c>
       <c r="F53" t="n">
-        <v>1770.7975</v>
+        <v>1160.4329</v>
       </c>
       <c r="G53" t="n">
-        <v>-9995.741640270018</v>
+        <v>-23335.22516403002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2536,22 +2496,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>961</v>
+        <v>930.9</v>
       </c>
       <c r="C54" t="n">
-        <v>956.1</v>
+        <v>930.9</v>
       </c>
       <c r="D54" t="n">
-        <v>962</v>
+        <v>930.9</v>
       </c>
       <c r="E54" t="n">
-        <v>956.1</v>
+        <v>930.9</v>
       </c>
       <c r="F54" t="n">
-        <v>315.60994303</v>
+        <v>412.9663</v>
       </c>
       <c r="G54" t="n">
-        <v>-9680.131697240018</v>
+        <v>-23335.22516403002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2576,22 +2536,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>960.9</v>
+        <v>934</v>
       </c>
       <c r="C55" t="n">
-        <v>960.9</v>
+        <v>934</v>
       </c>
       <c r="D55" t="n">
-        <v>961.9</v>
+        <v>934</v>
       </c>
       <c r="E55" t="n">
-        <v>960.9</v>
+        <v>934</v>
       </c>
       <c r="F55" t="n">
-        <v>2118.2503</v>
+        <v>352.4511</v>
       </c>
       <c r="G55" t="n">
-        <v>-7561.881397240018</v>
+        <v>-22982.77406403002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2616,22 +2576,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>960.9</v>
+        <v>934</v>
       </c>
       <c r="C56" t="n">
-        <v>960.9</v>
+        <v>937</v>
       </c>
       <c r="D56" t="n">
-        <v>960.9</v>
+        <v>937</v>
       </c>
       <c r="E56" t="n">
-        <v>960.9</v>
+        <v>934</v>
       </c>
       <c r="F56" t="n">
-        <v>3272.2283</v>
+        <v>36.4377</v>
       </c>
       <c r="G56" t="n">
-        <v>-7561.881397240018</v>
+        <v>-22946.33636403002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2656,22 +2616,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>960.9</v>
+        <v>933</v>
       </c>
       <c r="C57" t="n">
-        <v>952</v>
+        <v>933</v>
       </c>
       <c r="D57" t="n">
-        <v>960.9</v>
+        <v>933</v>
       </c>
       <c r="E57" t="n">
-        <v>952</v>
+        <v>933</v>
       </c>
       <c r="F57" t="n">
-        <v>961.9444999999999</v>
+        <v>1.2959</v>
       </c>
       <c r="G57" t="n">
-        <v>-8523.825897240018</v>
+        <v>-22947.63226403002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2696,22 +2656,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>952.1</v>
+        <v>937</v>
       </c>
       <c r="C58" t="n">
-        <v>952.1</v>
+        <v>937</v>
       </c>
       <c r="D58" t="n">
-        <v>952.1</v>
+        <v>937</v>
       </c>
       <c r="E58" t="n">
-        <v>952.1</v>
+        <v>937</v>
       </c>
       <c r="F58" t="n">
-        <v>483.7512</v>
+        <v>340.0135</v>
       </c>
       <c r="G58" t="n">
-        <v>-8040.074697240018</v>
+        <v>-22607.61876403002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2736,22 +2696,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="C59" t="n">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="D59" t="n">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="E59" t="n">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="F59" t="n">
-        <v>5110.7177</v>
+        <v>2121.5253</v>
       </c>
       <c r="G59" t="n">
-        <v>-13150.79239724002</v>
+        <v>-20486.09346403002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2776,22 +2736,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="C60" t="n">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="D60" t="n">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="E60" t="n">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>5.2849</v>
       </c>
       <c r="G60" t="n">
-        <v>-13050.79239724002</v>
+        <v>-20480.80856403002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2816,22 +2776,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>957</v>
+        <v>935.1</v>
       </c>
       <c r="C61" t="n">
-        <v>957</v>
+        <v>942</v>
       </c>
       <c r="D61" t="n">
-        <v>957</v>
+        <v>942</v>
       </c>
       <c r="E61" t="n">
-        <v>957</v>
+        <v>933.5</v>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>1231.2942</v>
       </c>
       <c r="G61" t="n">
-        <v>-12950.79239724002</v>
+        <v>-19249.51436403002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2856,22 +2816,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>963</v>
+        <v>943</v>
       </c>
       <c r="C62" t="n">
-        <v>963</v>
+        <v>943</v>
       </c>
       <c r="D62" t="n">
-        <v>963</v>
+        <v>943</v>
       </c>
       <c r="E62" t="n">
-        <v>963</v>
+        <v>943</v>
       </c>
       <c r="F62" t="n">
-        <v>44.4</v>
+        <v>161.1789</v>
       </c>
       <c r="G62" t="n">
-        <v>-12906.39239724002</v>
+        <v>-19088.33546403002</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2896,22 +2856,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>965</v>
+        <v>944</v>
       </c>
       <c r="C63" t="n">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="D63" t="n">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="E63" t="n">
-        <v>965</v>
+        <v>944</v>
       </c>
       <c r="F63" t="n">
-        <v>290</v>
+        <v>314.4223</v>
       </c>
       <c r="G63" t="n">
-        <v>-12616.39239724002</v>
+        <v>-18773.91316403002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2936,22 +2896,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>971</v>
+        <v>945</v>
       </c>
       <c r="C64" t="n">
-        <v>971</v>
+        <v>945</v>
       </c>
       <c r="D64" t="n">
-        <v>971</v>
+        <v>945</v>
       </c>
       <c r="E64" t="n">
-        <v>971</v>
+        <v>945</v>
       </c>
       <c r="F64" t="n">
-        <v>416.22</v>
+        <v>293.9951</v>
       </c>
       <c r="G64" t="n">
-        <v>-12200.17239724002</v>
+        <v>-18479.91806403002</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2976,22 +2936,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>971</v>
+        <v>944</v>
       </c>
       <c r="C65" t="n">
-        <v>974</v>
+        <v>944</v>
       </c>
       <c r="D65" t="n">
-        <v>974</v>
+        <v>944</v>
       </c>
       <c r="E65" t="n">
-        <v>971</v>
+        <v>944</v>
       </c>
       <c r="F65" t="n">
-        <v>2123.9262</v>
+        <v>1340.0369</v>
       </c>
       <c r="G65" t="n">
-        <v>-10076.24619724002</v>
+        <v>-19819.95496403002</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3016,22 +2976,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>974</v>
+        <v>945.9</v>
       </c>
       <c r="C66" t="n">
-        <v>972</v>
+        <v>946</v>
       </c>
       <c r="D66" t="n">
-        <v>1023</v>
+        <v>946</v>
       </c>
       <c r="E66" t="n">
-        <v>972</v>
+        <v>945.9</v>
       </c>
       <c r="F66" t="n">
-        <v>10146.72719676</v>
+        <v>238.628</v>
       </c>
       <c r="G66" t="n">
-        <v>-20222.97339400002</v>
+        <v>-19581.32696403002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3056,22 +3016,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>973</v>
+        <v>946.9</v>
       </c>
       <c r="C67" t="n">
-        <v>973.1</v>
+        <v>947</v>
       </c>
       <c r="D67" t="n">
-        <v>973.1</v>
+        <v>947</v>
       </c>
       <c r="E67" t="n">
-        <v>973</v>
+        <v>946.9</v>
       </c>
       <c r="F67" t="n">
-        <v>2190.1298</v>
+        <v>358.8793</v>
       </c>
       <c r="G67" t="n">
-        <v>-18032.84359400002</v>
+        <v>-19222.44766403002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3096,22 +3056,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>973</v>
+        <v>948</v>
       </c>
       <c r="C68" t="n">
-        <v>975</v>
+        <v>948</v>
       </c>
       <c r="D68" t="n">
-        <v>979</v>
+        <v>948</v>
       </c>
       <c r="E68" t="n">
-        <v>973</v>
+        <v>948</v>
       </c>
       <c r="F68" t="n">
-        <v>4953.4574</v>
+        <v>120.8037</v>
       </c>
       <c r="G68" t="n">
-        <v>-13079.38619400002</v>
+        <v>-19101.64396403002</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3136,22 +3096,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>975</v>
+        <v>948.9</v>
       </c>
       <c r="C69" t="n">
-        <v>975.1</v>
+        <v>949</v>
       </c>
       <c r="D69" t="n">
-        <v>975.1</v>
+        <v>949</v>
       </c>
       <c r="E69" t="n">
-        <v>975</v>
+        <v>948.9</v>
       </c>
       <c r="F69" t="n">
-        <v>386.0025</v>
+        <v>221.4277</v>
       </c>
       <c r="G69" t="n">
-        <v>-12693.38369400002</v>
+        <v>-18880.21626403002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3176,22 +3136,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>975.1</v>
+        <v>949</v>
       </c>
       <c r="C70" t="n">
-        <v>975.1</v>
+        <v>949</v>
       </c>
       <c r="D70" t="n">
-        <v>975.1</v>
+        <v>949</v>
       </c>
       <c r="E70" t="n">
-        <v>975.1</v>
+        <v>949</v>
       </c>
       <c r="F70" t="n">
-        <v>130.1511</v>
+        <v>36.6401</v>
       </c>
       <c r="G70" t="n">
-        <v>-12693.38369400002</v>
+        <v>-18880.21626403002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3216,22 +3176,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>975.3</v>
+        <v>950</v>
       </c>
       <c r="C71" t="n">
-        <v>975</v>
+        <v>950.1</v>
       </c>
       <c r="D71" t="n">
-        <v>975.3</v>
+        <v>950.1</v>
       </c>
       <c r="E71" t="n">
-        <v>975</v>
+        <v>950</v>
       </c>
       <c r="F71" t="n">
-        <v>1173.17</v>
+        <v>1441.6513</v>
       </c>
       <c r="G71" t="n">
-        <v>-13866.55369400002</v>
+        <v>-17438.56496403002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3256,22 +3216,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>975</v>
+        <v>950.1</v>
       </c>
       <c r="C72" t="n">
-        <v>975.2</v>
+        <v>950.1</v>
       </c>
       <c r="D72" t="n">
-        <v>975.2</v>
+        <v>950.1</v>
       </c>
       <c r="E72" t="n">
-        <v>975</v>
+        <v>950.1</v>
       </c>
       <c r="F72" t="n">
-        <v>615</v>
+        <v>95.7987</v>
       </c>
       <c r="G72" t="n">
-        <v>-13251.55369400002</v>
+        <v>-17438.56496403002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3296,22 +3256,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>975.2</v>
+        <v>950.1</v>
       </c>
       <c r="C73" t="n">
-        <v>975.2</v>
+        <v>950.1</v>
       </c>
       <c r="D73" t="n">
-        <v>976</v>
+        <v>950.1</v>
       </c>
       <c r="E73" t="n">
-        <v>975.2</v>
+        <v>950.1</v>
       </c>
       <c r="F73" t="n">
-        <v>515</v>
+        <v>1676.3252</v>
       </c>
       <c r="G73" t="n">
-        <v>-13251.55369400002</v>
+        <v>-17438.56496403002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3336,22 +3296,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>975.2</v>
+        <v>950.8</v>
       </c>
       <c r="C74" t="n">
-        <v>975.2</v>
+        <v>951.5</v>
       </c>
       <c r="D74" t="n">
-        <v>975.2</v>
+        <v>951.5</v>
       </c>
       <c r="E74" t="n">
-        <v>975.1</v>
+        <v>950.8</v>
       </c>
       <c r="F74" t="n">
-        <v>446</v>
+        <v>249.4577</v>
       </c>
       <c r="G74" t="n">
-        <v>-13251.55369400002</v>
+        <v>-17189.10726403002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3376,22 +3336,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>975.2</v>
+        <v>951.5</v>
       </c>
       <c r="C75" t="n">
-        <v>975.3</v>
+        <v>952.7</v>
       </c>
       <c r="D75" t="n">
-        <v>975.3</v>
+        <v>952.7</v>
       </c>
       <c r="E75" t="n">
-        <v>975.2</v>
+        <v>951.5</v>
       </c>
       <c r="F75" t="n">
-        <v>404</v>
+        <v>159.5753</v>
       </c>
       <c r="G75" t="n">
-        <v>-12847.55369400002</v>
+        <v>-17029.53196403002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3416,22 +3376,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>975.4</v>
+        <v>952.7</v>
       </c>
       <c r="C76" t="n">
-        <v>975.4</v>
+        <v>954</v>
       </c>
       <c r="D76" t="n">
-        <v>975.4</v>
+        <v>954</v>
       </c>
       <c r="E76" t="n">
-        <v>975.4</v>
+        <v>952.7</v>
       </c>
       <c r="F76" t="n">
-        <v>25</v>
+        <v>129.7869</v>
       </c>
       <c r="G76" t="n">
-        <v>-12822.55369400002</v>
+        <v>-16899.74506403002</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3456,22 +3416,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>975.4</v>
+        <v>954</v>
       </c>
       <c r="C77" t="n">
-        <v>975.4</v>
+        <v>954</v>
       </c>
       <c r="D77" t="n">
-        <v>975.4</v>
+        <v>957</v>
       </c>
       <c r="E77" t="n">
-        <v>975.4</v>
+        <v>953</v>
       </c>
       <c r="F77" t="n">
-        <v>145</v>
+        <v>254.4326</v>
       </c>
       <c r="G77" t="n">
-        <v>-12822.55369400002</v>
+        <v>-16899.74506403002</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3496,22 +3456,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>975.6</v>
+        <v>959.4</v>
       </c>
       <c r="C78" t="n">
-        <v>975.7</v>
+        <v>959.4</v>
       </c>
       <c r="D78" t="n">
-        <v>975.7</v>
+        <v>959.4</v>
       </c>
       <c r="E78" t="n">
-        <v>975.6</v>
+        <v>958.4</v>
       </c>
       <c r="F78" t="n">
-        <v>175</v>
+        <v>130.2769</v>
       </c>
       <c r="G78" t="n">
-        <v>-12647.55369400002</v>
+        <v>-16769.46816403002</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3536,22 +3496,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>984.8</v>
+        <v>959.4</v>
       </c>
       <c r="C79" t="n">
-        <v>985.9</v>
+        <v>969</v>
       </c>
       <c r="D79" t="n">
-        <v>985.9</v>
+        <v>969</v>
       </c>
       <c r="E79" t="n">
-        <v>984.8</v>
+        <v>959.4</v>
       </c>
       <c r="F79" t="n">
-        <v>505.8401</v>
+        <v>2950.13930082</v>
       </c>
       <c r="G79" t="n">
-        <v>-12141.71359400002</v>
+        <v>-13819.32886321002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3576,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>985.9</v>
+        <v>967</v>
       </c>
       <c r="C80" t="n">
-        <v>985.9</v>
+        <v>970.9</v>
       </c>
       <c r="D80" t="n">
-        <v>991.9</v>
+        <v>970.9</v>
       </c>
       <c r="E80" t="n">
-        <v>985.9</v>
+        <v>966</v>
       </c>
       <c r="F80" t="n">
-        <v>1590.2807</v>
+        <v>5601.16512294</v>
       </c>
       <c r="G80" t="n">
-        <v>-12141.71359400002</v>
+        <v>-8218.163740270018</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3616,22 +3576,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>985.9</v>
+        <v>968.9</v>
       </c>
       <c r="C81" t="n">
-        <v>990.7</v>
+        <v>968.9</v>
       </c>
       <c r="D81" t="n">
-        <v>990.7</v>
+        <v>968.9</v>
       </c>
       <c r="E81" t="n">
-        <v>985</v>
+        <v>968.9</v>
       </c>
       <c r="F81" t="n">
-        <v>2165.1186</v>
+        <v>6.7804</v>
       </c>
       <c r="G81" t="n">
-        <v>-9976.594994000025</v>
+        <v>-8224.944140270018</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3656,22 +3616,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>990.7</v>
+        <v>961</v>
       </c>
       <c r="C82" t="n">
-        <v>990.7</v>
+        <v>952</v>
       </c>
       <c r="D82" t="n">
-        <v>990.7</v>
+        <v>961</v>
       </c>
       <c r="E82" t="n">
-        <v>990.7</v>
+        <v>952</v>
       </c>
       <c r="F82" t="n">
-        <v>297.5684</v>
+        <v>1770.7975</v>
       </c>
       <c r="G82" t="n">
-        <v>-9976.594994000025</v>
+        <v>-9995.741640270018</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3696,22 +3656,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>989.7</v>
+        <v>961</v>
       </c>
       <c r="C83" t="n">
-        <v>989.7</v>
+        <v>956.1</v>
       </c>
       <c r="D83" t="n">
-        <v>989.7</v>
+        <v>962</v>
       </c>
       <c r="E83" t="n">
-        <v>989.7</v>
+        <v>956.1</v>
       </c>
       <c r="F83" t="n">
-        <v>5.2618</v>
+        <v>315.60994303</v>
       </c>
       <c r="G83" t="n">
-        <v>-9981.856794000025</v>
+        <v>-9680.131697240018</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3736,22 +3696,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>980</v>
+        <v>960.9</v>
       </c>
       <c r="C84" t="n">
-        <v>980</v>
+        <v>960.9</v>
       </c>
       <c r="D84" t="n">
-        <v>980</v>
+        <v>961.9</v>
       </c>
       <c r="E84" t="n">
-        <v>980</v>
+        <v>960.9</v>
       </c>
       <c r="F84" t="n">
-        <v>61.3</v>
+        <v>2118.2503</v>
       </c>
       <c r="G84" t="n">
-        <v>-10043.15679400002</v>
+        <v>-7561.881397240018</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3776,22 +3736,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>980</v>
+        <v>960.9</v>
       </c>
       <c r="C85" t="n">
-        <v>980</v>
+        <v>960.9</v>
       </c>
       <c r="D85" t="n">
-        <v>980</v>
+        <v>960.9</v>
       </c>
       <c r="E85" t="n">
-        <v>980</v>
+        <v>960.9</v>
       </c>
       <c r="F85" t="n">
-        <v>13.0497</v>
+        <v>3272.2283</v>
       </c>
       <c r="G85" t="n">
-        <v>-10043.15679400002</v>
+        <v>-7561.881397240018</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3816,22 +3776,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>988</v>
+        <v>960.9</v>
       </c>
       <c r="C86" t="n">
-        <v>988</v>
+        <v>952</v>
       </c>
       <c r="D86" t="n">
-        <v>988</v>
+        <v>960.9</v>
       </c>
       <c r="E86" t="n">
-        <v>988</v>
+        <v>952</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>961.9444999999999</v>
       </c>
       <c r="G86" t="n">
-        <v>-10042.15679400002</v>
+        <v>-8523.825897240018</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3856,22 +3816,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>989</v>
+        <v>952.1</v>
       </c>
       <c r="C87" t="n">
-        <v>990</v>
+        <v>952.1</v>
       </c>
       <c r="D87" t="n">
-        <v>990</v>
+        <v>952.1</v>
       </c>
       <c r="E87" t="n">
-        <v>989</v>
+        <v>952.1</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>483.7512</v>
       </c>
       <c r="G87" t="n">
-        <v>-10040.15679400002</v>
+        <v>-8040.074697240018</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3896,22 +3856,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>990</v>
+        <v>953</v>
       </c>
       <c r="C88" t="n">
-        <v>994.8</v>
+        <v>952</v>
       </c>
       <c r="D88" t="n">
-        <v>994.8</v>
+        <v>953</v>
       </c>
       <c r="E88" t="n">
-        <v>990</v>
+        <v>952</v>
       </c>
       <c r="F88" t="n">
-        <v>5480.7058899</v>
+        <v>5110.7177</v>
       </c>
       <c r="G88" t="n">
-        <v>-4559.450904100024</v>
+        <v>-13150.79239724002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3936,72 +3896,76 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>995</v>
+        <v>954</v>
       </c>
       <c r="C89" t="n">
-        <v>994.8</v>
+        <v>954</v>
       </c>
       <c r="D89" t="n">
-        <v>995</v>
+        <v>954</v>
       </c>
       <c r="E89" t="n">
-        <v>994.8</v>
+        <v>954</v>
       </c>
       <c r="F89" t="n">
-        <v>28.49</v>
+        <v>100</v>
       </c>
       <c r="G89" t="n">
-        <v>-4559.450904100024</v>
+        <v>-13050.79239724002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
-        <v>1.00758158444127</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>994.9</v>
+        <v>957</v>
       </c>
       <c r="C90" t="n">
-        <v>993.8</v>
+        <v>957</v>
       </c>
       <c r="D90" t="n">
-        <v>994.9</v>
+        <v>957</v>
       </c>
       <c r="E90" t="n">
-        <v>988</v>
+        <v>957</v>
       </c>
       <c r="F90" t="n">
-        <v>96.6108</v>
+        <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>-4656.061704100024</v>
+        <v>-12950.79239724002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4012,32 +3976,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>994.9</v>
+        <v>963</v>
       </c>
       <c r="C91" t="n">
-        <v>990</v>
+        <v>963</v>
       </c>
       <c r="D91" t="n">
-        <v>994.9</v>
+        <v>963</v>
       </c>
       <c r="E91" t="n">
-        <v>989</v>
+        <v>963</v>
       </c>
       <c r="F91" t="n">
-        <v>312.2216</v>
+        <v>44.4</v>
       </c>
       <c r="G91" t="n">
-        <v>-4968.283304100024</v>
+        <v>-12906.39239724002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4048,32 +4016,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>993.9</v>
+        <v>965</v>
       </c>
       <c r="C92" t="n">
-        <v>995</v>
+        <v>966</v>
       </c>
       <c r="D92" t="n">
-        <v>995</v>
+        <v>966</v>
       </c>
       <c r="E92" t="n">
-        <v>993.9</v>
+        <v>965</v>
       </c>
       <c r="F92" t="n">
-        <v>1362.3233</v>
+        <v>290</v>
       </c>
       <c r="G92" t="n">
-        <v>-3605.960004100024</v>
+        <v>-12616.39239724002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4084,32 +4056,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>997</v>
+        <v>971</v>
       </c>
       <c r="C93" t="n">
-        <v>998.1</v>
+        <v>971</v>
       </c>
       <c r="D93" t="n">
-        <v>1004</v>
+        <v>971</v>
       </c>
       <c r="E93" t="n">
-        <v>997</v>
+        <v>971</v>
       </c>
       <c r="F93" t="n">
-        <v>720.0806262900001</v>
+        <v>416.22</v>
       </c>
       <c r="G93" t="n">
-        <v>-2885.879377810024</v>
+        <v>-12200.17239724002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4120,32 +4096,36 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1000</v>
+        <v>971</v>
       </c>
       <c r="C94" t="n">
-        <v>997</v>
+        <v>974</v>
       </c>
       <c r="D94" t="n">
-        <v>1002</v>
+        <v>974</v>
       </c>
       <c r="E94" t="n">
-        <v>997</v>
+        <v>971</v>
       </c>
       <c r="F94" t="n">
-        <v>1499.3916</v>
+        <v>2123.9262</v>
       </c>
       <c r="G94" t="n">
-        <v>-4385.270977810023</v>
+        <v>-10076.24619724002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4156,32 +4136,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1002</v>
+        <v>974</v>
       </c>
       <c r="C95" t="n">
-        <v>999.6</v>
+        <v>972</v>
       </c>
       <c r="D95" t="n">
-        <v>1002</v>
+        <v>1023</v>
       </c>
       <c r="E95" t="n">
-        <v>999.6</v>
+        <v>972</v>
       </c>
       <c r="F95" t="n">
-        <v>831.5275</v>
+        <v>10146.72719676</v>
       </c>
       <c r="G95" t="n">
-        <v>-3553.743477810023</v>
+        <v>-20222.97339400002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4192,32 +4176,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1001</v>
+        <v>973</v>
       </c>
       <c r="C96" t="n">
-        <v>1000</v>
+        <v>973.1</v>
       </c>
       <c r="D96" t="n">
-        <v>1001</v>
+        <v>973.1</v>
       </c>
       <c r="E96" t="n">
-        <v>999.6</v>
+        <v>973</v>
       </c>
       <c r="F96" t="n">
-        <v>1336.9839</v>
+        <v>2190.1298</v>
       </c>
       <c r="G96" t="n">
-        <v>-2216.759577810023</v>
+        <v>-18032.84359400002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4228,32 +4216,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>992</v>
+        <v>973</v>
       </c>
       <c r="C97" t="n">
-        <v>988.1</v>
+        <v>975</v>
       </c>
       <c r="D97" t="n">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="E97" t="n">
-        <v>988.1</v>
+        <v>973</v>
       </c>
       <c r="F97" t="n">
-        <v>60.9605</v>
+        <v>4953.4574</v>
       </c>
       <c r="G97" t="n">
-        <v>-2277.720077810023</v>
+        <v>-13079.38619400002</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4264,32 +4256,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>993</v>
+        <v>975</v>
       </c>
       <c r="C98" t="n">
         <v>975.1</v>
       </c>
       <c r="D98" t="n">
-        <v>993</v>
+        <v>975.1</v>
       </c>
       <c r="E98" t="n">
         <v>975</v>
       </c>
       <c r="F98" t="n">
-        <v>1494.7901</v>
+        <v>386.0025</v>
       </c>
       <c r="G98" t="n">
-        <v>-3772.510177810023</v>
+        <v>-12693.38369400002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4300,32 +4296,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>981</v>
+        <v>975.1</v>
       </c>
       <c r="C99" t="n">
-        <v>981</v>
+        <v>975.1</v>
       </c>
       <c r="D99" t="n">
-        <v>981</v>
+        <v>975.1</v>
       </c>
       <c r="E99" t="n">
-        <v>981</v>
+        <v>975.1</v>
       </c>
       <c r="F99" t="n">
-        <v>121.4135</v>
+        <v>130.1511</v>
       </c>
       <c r="G99" t="n">
-        <v>-3651.096677810023</v>
+        <v>-12693.38369400002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4336,32 +4336,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>982</v>
+        <v>975.3</v>
       </c>
       <c r="C100" t="n">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="D100" t="n">
-        <v>982</v>
+        <v>975.3</v>
       </c>
       <c r="E100" t="n">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="F100" t="n">
-        <v>749.9999</v>
+        <v>1173.17</v>
       </c>
       <c r="G100" t="n">
-        <v>-2901.096777810023</v>
+        <v>-13866.55369400002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4372,32 +4376,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="C101" t="n">
-        <v>989</v>
+        <v>975.2</v>
       </c>
       <c r="D101" t="n">
-        <v>989</v>
+        <v>975.2</v>
       </c>
       <c r="E101" t="n">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="F101" t="n">
-        <v>1.50050556</v>
+        <v>615</v>
       </c>
       <c r="G101" t="n">
-        <v>-2899.596272250023</v>
+        <v>-13251.55369400002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4408,32 +4416,36 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>988</v>
+        <v>975.2</v>
       </c>
       <c r="C102" t="n">
-        <v>989</v>
+        <v>975.2</v>
       </c>
       <c r="D102" t="n">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="E102" t="n">
-        <v>988</v>
+        <v>975.2</v>
       </c>
       <c r="F102" t="n">
-        <v>942.8685</v>
+        <v>515</v>
       </c>
       <c r="G102" t="n">
-        <v>-2899.596272250023</v>
+        <v>-13251.55369400002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4444,32 +4456,36 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>997.4</v>
+        <v>975.2</v>
       </c>
       <c r="C103" t="n">
-        <v>989</v>
+        <v>975.2</v>
       </c>
       <c r="D103" t="n">
-        <v>997.4</v>
+        <v>975.2</v>
       </c>
       <c r="E103" t="n">
-        <v>989</v>
+        <v>975.1</v>
       </c>
       <c r="F103" t="n">
-        <v>11.01499973</v>
+        <v>446</v>
       </c>
       <c r="G103" t="n">
-        <v>-2899.596272250023</v>
+        <v>-13251.55369400002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4480,32 +4496,36 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>987</v>
+        <v>975.2</v>
       </c>
       <c r="C104" t="n">
-        <v>987</v>
+        <v>975.3</v>
       </c>
       <c r="D104" t="n">
-        <v>987</v>
+        <v>975.3</v>
       </c>
       <c r="E104" t="n">
-        <v>987</v>
+        <v>975.2</v>
       </c>
       <c r="F104" t="n">
-        <v>42.3</v>
+        <v>404</v>
       </c>
       <c r="G104" t="n">
-        <v>-2941.896272250023</v>
+        <v>-12847.55369400002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4516,32 +4536,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>997.5</v>
+        <v>975.4</v>
       </c>
       <c r="C105" t="n">
-        <v>997.5</v>
+        <v>975.4</v>
       </c>
       <c r="D105" t="n">
-        <v>997.5</v>
+        <v>975.4</v>
       </c>
       <c r="E105" t="n">
-        <v>997.5</v>
+        <v>975.4</v>
       </c>
       <c r="F105" t="n">
-        <v>1.49874686</v>
+        <v>25</v>
       </c>
       <c r="G105" t="n">
-        <v>-2940.397525390023</v>
+        <v>-12822.55369400002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4552,32 +4576,36 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>983.1</v>
+        <v>975.4</v>
       </c>
       <c r="C106" t="n">
-        <v>983.1</v>
+        <v>975.4</v>
       </c>
       <c r="D106" t="n">
-        <v>983.1</v>
+        <v>975.4</v>
       </c>
       <c r="E106" t="n">
-        <v>983.1</v>
+        <v>975.4</v>
       </c>
       <c r="F106" t="n">
-        <v>1257.0899</v>
+        <v>145</v>
       </c>
       <c r="G106" t="n">
-        <v>-4197.487425390023</v>
+        <v>-12822.55369400002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4588,32 +4616,36 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>983.1</v>
+        <v>975.6</v>
       </c>
       <c r="C107" t="n">
-        <v>983.1</v>
+        <v>975.7</v>
       </c>
       <c r="D107" t="n">
-        <v>983.1</v>
+        <v>975.7</v>
       </c>
       <c r="E107" t="n">
-        <v>983.1</v>
+        <v>975.6</v>
       </c>
       <c r="F107" t="n">
-        <v>619.1437</v>
+        <v>175</v>
       </c>
       <c r="G107" t="n">
-        <v>-4197.487425390023</v>
+        <v>-12647.55369400002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4624,32 +4656,36 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>983.2</v>
+        <v>984.8</v>
       </c>
       <c r="C108" t="n">
-        <v>983.2</v>
+        <v>985.9</v>
       </c>
       <c r="D108" t="n">
-        <v>983.2</v>
+        <v>985.9</v>
       </c>
       <c r="E108" t="n">
-        <v>983.2</v>
+        <v>984.8</v>
       </c>
       <c r="F108" t="n">
-        <v>1297.7828</v>
+        <v>505.8401</v>
       </c>
       <c r="G108" t="n">
-        <v>-2899.704625390023</v>
+        <v>-12141.71359400002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4660,32 +4696,36 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>983.2</v>
+        <v>985.9</v>
       </c>
       <c r="C109" t="n">
-        <v>983.1</v>
+        <v>985.9</v>
       </c>
       <c r="D109" t="n">
-        <v>983.2</v>
+        <v>991.9</v>
       </c>
       <c r="E109" t="n">
-        <v>983.1</v>
+        <v>985.9</v>
       </c>
       <c r="F109" t="n">
-        <v>1686.64</v>
+        <v>1590.2807</v>
       </c>
       <c r="G109" t="n">
-        <v>-4586.344625390024</v>
+        <v>-12141.71359400002</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4696,32 +4736,36 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>983.1</v>
+        <v>985.9</v>
       </c>
       <c r="C110" t="n">
-        <v>983.1</v>
+        <v>990.7</v>
       </c>
       <c r="D110" t="n">
-        <v>983.1</v>
+        <v>990.7</v>
       </c>
       <c r="E110" t="n">
-        <v>983.1</v>
+        <v>985</v>
       </c>
       <c r="F110" t="n">
-        <v>4538.1458</v>
+        <v>2165.1186</v>
       </c>
       <c r="G110" t="n">
-        <v>-4586.344625390024</v>
+        <v>-9976.594994000025</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4732,32 +4776,36 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>983.1</v>
+        <v>990.7</v>
       </c>
       <c r="C111" t="n">
-        <v>996.9</v>
+        <v>990.7</v>
       </c>
       <c r="D111" t="n">
-        <v>996.9</v>
+        <v>990.7</v>
       </c>
       <c r="E111" t="n">
-        <v>983.1</v>
+        <v>990.7</v>
       </c>
       <c r="F111" t="n">
-        <v>137.35544891</v>
+        <v>297.5684</v>
       </c>
       <c r="G111" t="n">
-        <v>-4448.989176480024</v>
+        <v>-9976.594994000025</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4768,22 +4816,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>995.3</v>
+        <v>989.7</v>
       </c>
       <c r="C112" t="n">
-        <v>983</v>
+        <v>989.7</v>
       </c>
       <c r="D112" t="n">
-        <v>995.3</v>
+        <v>989.7</v>
       </c>
       <c r="E112" t="n">
-        <v>983</v>
+        <v>989.7</v>
       </c>
       <c r="F112" t="n">
-        <v>50</v>
+        <v>5.2618</v>
       </c>
       <c r="G112" t="n">
-        <v>-4498.989176480024</v>
+        <v>-9981.856794000025</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4793,10 +4841,12 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -4804,28 +4854,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C113" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D113" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E113" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F113" t="n">
-        <v>781.9988</v>
+        <v>61.3</v>
       </c>
       <c r="G113" t="n">
-        <v>-4498.989176480024</v>
+        <v>-10043.15679400002</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4840,28 +4890,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C114" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D114" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E114" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F114" t="n">
-        <v>1563.69</v>
+        <v>13.0497</v>
       </c>
       <c r="G114" t="n">
-        <v>-4498.989176480024</v>
+        <v>-10043.15679400002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4876,28 +4926,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="C115" t="n">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="D115" t="n">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="E115" t="n">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="F115" t="n">
-        <v>593.4605</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>-4498.989176480024</v>
+        <v>-10042.15679400002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4912,22 +4962,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="C116" t="n">
-        <v>983.1</v>
+        <v>990</v>
       </c>
       <c r="D116" t="n">
-        <v>983.1</v>
+        <v>990</v>
       </c>
       <c r="E116" t="n">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="F116" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>-4448.989176480024</v>
+        <v>-10040.15679400002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4948,28 +4998,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>983.1</v>
+        <v>990</v>
       </c>
       <c r="C117" t="n">
-        <v>983.1</v>
+        <v>994.8</v>
       </c>
       <c r="D117" t="n">
-        <v>983.1</v>
+        <v>994.8</v>
       </c>
       <c r="E117" t="n">
-        <v>983.1</v>
+        <v>990</v>
       </c>
       <c r="F117" t="n">
-        <v>25</v>
+        <v>5480.7058899</v>
       </c>
       <c r="G117" t="n">
-        <v>-4448.989176480024</v>
+        <v>-4559.450904100024</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4984,22 +5034,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>983.1</v>
+        <v>995</v>
       </c>
       <c r="C118" t="n">
-        <v>983.1</v>
+        <v>994.8</v>
       </c>
       <c r="D118" t="n">
-        <v>983.1</v>
+        <v>995</v>
       </c>
       <c r="E118" t="n">
-        <v>983.1</v>
+        <v>994.8</v>
       </c>
       <c r="F118" t="n">
-        <v>25</v>
+        <v>28.49</v>
       </c>
       <c r="G118" t="n">
-        <v>-4448.989176480024</v>
+        <v>-4559.450904100024</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5020,22 +5070,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>983.2</v>
+        <v>994.9</v>
       </c>
       <c r="C119" t="n">
-        <v>983.2</v>
+        <v>993.8</v>
       </c>
       <c r="D119" t="n">
-        <v>990</v>
+        <v>994.9</v>
       </c>
       <c r="E119" t="n">
-        <v>983.2</v>
+        <v>988</v>
       </c>
       <c r="F119" t="n">
-        <v>128.2522</v>
+        <v>96.6108</v>
       </c>
       <c r="G119" t="n">
-        <v>-4320.736976480024</v>
+        <v>-4656.061704100024</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5051,6 +5101,1050 @@
       </c>
       <c r="N119" t="inlineStr"/>
     </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>994.9</v>
+      </c>
+      <c r="C120" t="n">
+        <v>990</v>
+      </c>
+      <c r="D120" t="n">
+        <v>994.9</v>
+      </c>
+      <c r="E120" t="n">
+        <v>989</v>
+      </c>
+      <c r="F120" t="n">
+        <v>312.2216</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-4968.283304100024</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>993.9</v>
+      </c>
+      <c r="C121" t="n">
+        <v>995</v>
+      </c>
+      <c r="D121" t="n">
+        <v>995</v>
+      </c>
+      <c r="E121" t="n">
+        <v>993.9</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1362.3233</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-3605.960004100024</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>997</v>
+      </c>
+      <c r="C122" t="n">
+        <v>998.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E122" t="n">
+        <v>997</v>
+      </c>
+      <c r="F122" t="n">
+        <v>720.0806262900001</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2885.879377810024</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C123" t="n">
+        <v>997</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E123" t="n">
+        <v>997</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1499.3916</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-4385.270977810023</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C124" t="n">
+        <v>999.6</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E124" t="n">
+        <v>999.6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>831.5275</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-3553.743477810023</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E125" t="n">
+        <v>999.6</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1336.9839</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-2216.759577810023</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>992</v>
+      </c>
+      <c r="C126" t="n">
+        <v>988.1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>992</v>
+      </c>
+      <c r="E126" t="n">
+        <v>988.1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>60.9605</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2277.720077810023</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>993</v>
+      </c>
+      <c r="C127" t="n">
+        <v>975.1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>993</v>
+      </c>
+      <c r="E127" t="n">
+        <v>975</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1494.7901</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-3772.510177810023</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>981</v>
+      </c>
+      <c r="C128" t="n">
+        <v>981</v>
+      </c>
+      <c r="D128" t="n">
+        <v>981</v>
+      </c>
+      <c r="E128" t="n">
+        <v>981</v>
+      </c>
+      <c r="F128" t="n">
+        <v>121.4135</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-3651.096677810023</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>982</v>
+      </c>
+      <c r="C129" t="n">
+        <v>982</v>
+      </c>
+      <c r="D129" t="n">
+        <v>982</v>
+      </c>
+      <c r="E129" t="n">
+        <v>982</v>
+      </c>
+      <c r="F129" t="n">
+        <v>749.9999</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2901.096777810023</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>989</v>
+      </c>
+      <c r="C130" t="n">
+        <v>989</v>
+      </c>
+      <c r="D130" t="n">
+        <v>989</v>
+      </c>
+      <c r="E130" t="n">
+        <v>989</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.50050556</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2899.596272250023</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>988</v>
+      </c>
+      <c r="C131" t="n">
+        <v>989</v>
+      </c>
+      <c r="D131" t="n">
+        <v>989</v>
+      </c>
+      <c r="E131" t="n">
+        <v>988</v>
+      </c>
+      <c r="F131" t="n">
+        <v>942.8685</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-2899.596272250023</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>997.4</v>
+      </c>
+      <c r="C132" t="n">
+        <v>989</v>
+      </c>
+      <c r="D132" t="n">
+        <v>997.4</v>
+      </c>
+      <c r="E132" t="n">
+        <v>989</v>
+      </c>
+      <c r="F132" t="n">
+        <v>11.01499973</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-2899.596272250023</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>987</v>
+      </c>
+      <c r="C133" t="n">
+        <v>987</v>
+      </c>
+      <c r="D133" t="n">
+        <v>987</v>
+      </c>
+      <c r="E133" t="n">
+        <v>987</v>
+      </c>
+      <c r="F133" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-2941.896272250023</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="E134" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.49874686</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2940.397525390023</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1257.0899</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-4197.487425390023</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="E136" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>619.1437</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-4197.487425390023</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>983.2</v>
+      </c>
+      <c r="C137" t="n">
+        <v>983.2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>983.2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>983.2</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1297.7828</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-2899.704625390023</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>983.2</v>
+      </c>
+      <c r="C138" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>983.2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1686.64</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-4586.344625390024</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4538.1458</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-4586.344625390024</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>996.9</v>
+      </c>
+      <c r="D140" t="n">
+        <v>996.9</v>
+      </c>
+      <c r="E140" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>137.35544891</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-4448.989176480024</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>995.3</v>
+      </c>
+      <c r="C141" t="n">
+        <v>983</v>
+      </c>
+      <c r="D141" t="n">
+        <v>995.3</v>
+      </c>
+      <c r="E141" t="n">
+        <v>983</v>
+      </c>
+      <c r="F141" t="n">
+        <v>50</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-4498.989176480024</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>983</v>
+      </c>
+      <c r="C142" t="n">
+        <v>983</v>
+      </c>
+      <c r="D142" t="n">
+        <v>983</v>
+      </c>
+      <c r="E142" t="n">
+        <v>983</v>
+      </c>
+      <c r="F142" t="n">
+        <v>781.9988</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-4498.989176480024</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>983</v>
+      </c>
+      <c r="C143" t="n">
+        <v>983</v>
+      </c>
+      <c r="D143" t="n">
+        <v>983</v>
+      </c>
+      <c r="E143" t="n">
+        <v>983</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1563.69</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-4498.989176480024</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>983</v>
+      </c>
+      <c r="C144" t="n">
+        <v>983</v>
+      </c>
+      <c r="D144" t="n">
+        <v>983</v>
+      </c>
+      <c r="E144" t="n">
+        <v>983</v>
+      </c>
+      <c r="F144" t="n">
+        <v>593.4605</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-4498.989176480024</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>983</v>
+      </c>
+      <c r="C145" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>983</v>
+      </c>
+      <c r="F145" t="n">
+        <v>50</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-4448.989176480024</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>25</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-4448.989176480024</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>983.1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>25</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-4448.989176480024</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>983.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>983.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>990</v>
+      </c>
+      <c r="E148" t="n">
+        <v>983.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>128.2522</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-4320.736976480024</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-12 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-12 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N148"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,24 +979,15 @@
         <v>-18220.30382733</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1074,24 +1012,15 @@
         <v>-17738.85352733</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>909.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1116,24 +1045,15 @@
         <v>-17738.85352733</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1158,24 +1078,15 @@
         <v>-17728.85352733</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1200,24 +1111,15 @@
         <v>-16944.16352733</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1244,20 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1284,20 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1324,20 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1364,20 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1404,20 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1444,20 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1484,20 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1524,20 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1562,24 +1408,15 @@
         <v>-25097.85362733001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1604,24 +1441,19 @@
         <v>-25059.89652733001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>910.1</v>
       </c>
       <c r="J32" t="n">
         <v>910.1</v>
       </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1646,24 +1478,23 @@
         <v>-25041.83722733001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="J33" t="n">
-        <v>911</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>910.1</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1688,24 +1519,23 @@
         <v>-25023.23592733001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>913</v>
       </c>
       <c r="J34" t="n">
-        <v>913</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>910.1</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1730,24 +1560,19 @@
         <v>-25043.11662733001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>917</v>
       </c>
       <c r="J35" t="n">
         <v>917</v>
       </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1772,24 +1597,23 @@
         <v>-25123.28632733001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>913</v>
       </c>
       <c r="J36" t="n">
-        <v>913</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1814,24 +1638,23 @@
         <v>-25207.34352733001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>912.1</v>
       </c>
       <c r="J37" t="n">
-        <v>912.1</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1856,24 +1679,23 @@
         <v>-24850.80072733001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="J38" t="n">
-        <v>912</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1898,24 +1720,23 @@
         <v>-24816.68252733001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>913</v>
       </c>
       <c r="J39" t="n">
-        <v>913</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1940,24 +1761,23 @@
         <v>-24731.08252733001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="J40" t="n">
-        <v>915</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1982,24 +1802,21 @@
         <v>-24868.01362733001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>919</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2024,24 +1841,21 @@
         <v>-24761.86672733001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>917</v>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2066,24 +1880,21 @@
         <v>-24986.86672733001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>920</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2108,24 +1919,21 @@
         <v>-24770.99467663001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>919.9</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2150,24 +1958,21 @@
         <v>-25040.97816403001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>927</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2192,24 +1997,21 @@
         <v>-25040.97816403001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>926</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2236,20 +2038,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>917</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2276,20 +2077,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>917</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2316,20 +2116,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>917</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2356,20 +2155,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>917</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2396,20 +2194,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>917</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2436,20 +2233,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>917</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2476,20 +2272,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>917</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2516,20 +2311,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>917</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2556,20 +2350,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>917</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2596,20 +2389,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>917</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2636,20 +2428,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>917</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2676,20 +2467,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>917</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2716,20 +2506,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>917</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2756,20 +2545,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>917</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2796,20 +2584,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>917</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2836,20 +2623,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>917</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2876,20 +2662,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>917</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2916,20 +2701,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>917</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2956,20 +2740,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>917</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2996,20 +2779,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>917</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3036,20 +2818,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>917</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3076,20 +2857,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>917</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3116,20 +2896,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>917</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3156,20 +2935,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>917</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3196,20 +2974,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>917</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3236,20 +3013,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>917</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3276,20 +3052,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>917</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3316,20 +3091,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>917</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3356,20 +3130,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>917</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3396,20 +3169,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>917</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3436,20 +3208,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>917</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3476,20 +3247,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>917</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3516,20 +3286,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>917</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3556,20 +3325,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>917</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3596,20 +3364,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>917</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3636,20 +3403,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>917</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3676,20 +3442,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>917</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3716,20 +3481,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>917</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3756,20 +3520,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>917</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3796,20 +3559,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>917</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3836,20 +3598,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>917</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3876,20 +3637,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>917</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3916,20 +3676,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>917</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3956,20 +3715,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>917</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3996,20 +3754,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>917</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4036,20 +3793,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>917</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4076,20 +3832,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>917</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4116,20 +3871,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>917</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4156,20 +3910,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>917</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4194,22 +3947,21 @@
         <v>-18032.84359400002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>917</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4234,22 +3986,23 @@
         <v>-13079.38619400002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>917</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.058249727371865</v>
       </c>
       <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>1.029589704102959</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4274,22 +4027,15 @@
         <v>-12693.38369400002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4314,22 +4060,15 @@
         <v>-12693.38369400002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4356,20 +4095,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4396,20 +4128,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4434,22 +4159,15 @@
         <v>-13251.55369400002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4474,22 +4192,15 @@
         <v>-13251.55369400002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4514,22 +4225,15 @@
         <v>-12847.55369400002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4554,22 +4258,15 @@
         <v>-12822.55369400002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4596,20 +4293,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4636,20 +4326,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4676,20 +4359,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4716,20 +4392,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4756,20 +4425,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4794,22 +4456,15 @@
         <v>-9976.594994000025</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4834,20 +4489,15 @@
         <v>-9981.856794000025</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L112" t="n">
+        <v>1</v>
       </c>
       <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4872,18 +4522,15 @@
         <v>-10043.15679400002</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4908,18 +4555,15 @@
         <v>-10043.15679400002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4944,18 +4588,15 @@
         <v>-10042.15679400002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4982,16 +4623,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5018,16 +4656,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5054,16 +4689,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5088,18 +4720,15 @@
         <v>-4656.061704100024</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5124,18 +4753,15 @@
         <v>-4968.283304100024</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5162,16 +4788,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5198,16 +4821,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5234,16 +4854,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5270,16 +4887,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5304,18 +4918,15 @@
         <v>-2216.759577810023</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5342,16 +4953,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5376,18 +4984,15 @@
         <v>-3772.510177810023</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5414,16 +5019,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5450,16 +5052,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5486,16 +5085,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5522,16 +5118,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5558,16 +5151,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5594,16 +5184,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5630,16 +5217,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5666,16 +5250,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5702,16 +5283,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5738,16 +5316,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5774,16 +5349,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5810,16 +5382,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5846,16 +5415,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5882,16 +5448,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5918,16 +5481,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5954,16 +5514,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5990,16 +5547,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6026,16 +5580,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6062,16 +5613,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6098,16 +5646,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6134,18 +5679,15 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-12 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1078,10 +1078,14 @@
         <v>-17728.85352733</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>915</v>
+      </c>
+      <c r="J21" t="n">
+        <v>915</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1114,8 +1118,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>915</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1157,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>915</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1391,17 @@
         <v>-25158.28652733001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>910.1</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1430,17 @@
         <v>-25097.85362733001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>910</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,15 +1469,17 @@
         <v>-25059.89652733001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>910.1</v>
       </c>
-      <c r="J32" t="n">
-        <v>910.1</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,17 +1508,15 @@
         <v>-25041.83722733001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>911</v>
       </c>
-      <c r="J33" t="n">
-        <v>910.1</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1519,17 +1547,15 @@
         <v>-25023.23592733001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>913</v>
       </c>
-      <c r="J34" t="n">
-        <v>910.1</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1560,15 +1586,17 @@
         <v>-25043.11662733001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>917</v>
       </c>
-      <c r="J35" t="n">
-        <v>917</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1597,17 +1625,15 @@
         <v>-25123.28632733001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>913</v>
       </c>
-      <c r="J36" t="n">
-        <v>917</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1638,17 +1664,15 @@
         <v>-25207.34352733001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>912.1</v>
       </c>
-      <c r="J37" t="n">
-        <v>917</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1679,14 +1703,12 @@
         <v>-24850.80072733001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>912</v>
       </c>
-      <c r="J38" t="n">
-        <v>917</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1720,14 +1742,12 @@
         <v>-24816.68252733001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>913</v>
       </c>
-      <c r="J39" t="n">
-        <v>917</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1761,14 +1781,12 @@
         <v>-24731.08252733001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>915</v>
       </c>
-      <c r="J40" t="n">
-        <v>917</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1802,12 +1820,12 @@
         <v>-24868.01362733001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>917</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>919</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1841,12 +1859,12 @@
         <v>-24761.86672733001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
         <v>917</v>
       </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1880,12 +1898,12 @@
         <v>-24986.86672733001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>917</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>920</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1919,12 +1937,12 @@
         <v>-24770.99467663001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>917</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>919.9</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1958,12 +1976,12 @@
         <v>-25040.97816403001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>917</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>927</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1997,12 +2015,12 @@
         <v>-25040.97816403001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>917</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>926</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2039,9 +2057,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>917</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2078,9 +2094,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>917</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2117,9 +2131,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>917</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2156,9 +2168,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>917</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2195,9 +2205,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>917</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2234,9 +2242,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>917</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2273,9 +2279,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>917</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2312,9 +2316,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>917</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2351,9 +2353,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>917</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2390,9 +2390,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>917</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2429,9 +2427,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>917</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2468,9 +2464,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>917</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2507,9 +2501,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>917</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2546,9 +2538,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>917</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2585,9 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>917</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2624,9 +2612,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>917</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2663,9 +2649,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>917</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2702,9 +2686,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>917</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2741,9 +2723,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>917</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2780,9 +2760,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>917</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2819,9 +2797,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>917</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2858,9 +2834,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>917</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2897,9 +2871,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>917</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2936,9 +2908,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>917</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2975,9 +2945,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>917</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3014,9 +2982,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>917</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3053,9 +3019,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>917</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3092,9 +3056,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>917</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3131,9 +3093,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>917</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3170,9 +3130,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>917</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3209,9 +3167,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>917</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3248,9 +3204,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>917</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3287,9 +3241,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>917</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3326,9 +3278,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>917</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3365,9 +3315,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>917</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3404,9 +3352,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>917</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3443,9 +3389,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>917</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3482,9 +3426,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>917</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3521,9 +3463,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>917</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3560,9 +3500,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>917</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3599,9 +3537,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>917</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3638,9 +3574,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>917</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3677,9 +3611,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>917</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3716,9 +3648,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>917</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3755,9 +3685,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>917</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3794,9 +3722,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>917</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3833,9 +3759,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>917</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3872,9 +3796,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>917</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3911,9 +3833,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>917</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3947,12 +3867,10 @@
         <v>-18032.84359400002</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>917</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3986,23 +3904,19 @@
         <v>-13079.38619400002</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>917</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.058249727371865</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.029589704102959</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4027,11 +3941,15 @@
         <v>-12693.38369400002</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4060,11 +3978,15 @@
         <v>-12693.38369400002</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4097,7 +4019,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4130,7 +4056,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4159,11 +4089,15 @@
         <v>-13251.55369400002</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4192,11 +4126,15 @@
         <v>-13251.55369400002</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4225,11 +4163,15 @@
         <v>-12847.55369400002</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4258,11 +4200,15 @@
         <v>-12822.55369400002</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4295,7 +4241,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4328,7 +4278,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4361,7 +4315,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4394,7 +4352,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4427,7 +4389,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4456,11 +4422,15 @@
         <v>-9976.594994000025</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4489,11 +4459,15 @@
         <v>-9981.856794000025</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4522,11 +4496,15 @@
         <v>-10043.15679400002</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4555,11 +4533,15 @@
         <v>-10043.15679400002</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4588,11 +4570,15 @@
         <v>-10042.15679400002</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4625,7 +4611,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4658,7 +4648,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4691,7 +4685,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4720,11 +4718,15 @@
         <v>-4656.061704100024</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4753,11 +4755,15 @@
         <v>-4968.283304100024</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4790,7 +4796,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4823,7 +4833,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4856,7 +4870,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4885,14 +4903,16 @@
         <v>-3553.743477810023</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
@@ -4918,7 +4938,7 @@
         <v>-2216.759577810023</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4984,7 +5004,7 @@
         <v>-3772.510177810023</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5017,7 +5037,7 @@
         <v>-3651.096677810023</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5050,7 +5070,7 @@
         <v>-2901.096777810023</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5083,7 +5103,7 @@
         <v>-2899.596272250023</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5116,7 +5136,7 @@
         <v>-2899.596272250023</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5149,7 +5169,7 @@
         <v>-2899.596272250023</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5182,7 +5202,7 @@
         <v>-2941.896272250023</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5215,7 +5235,7 @@
         <v>-2940.397525390023</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5248,7 +5268,7 @@
         <v>-4197.487425390023</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5281,7 +5301,7 @@
         <v>-4197.487425390023</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5314,7 +5334,7 @@
         <v>-2899.704625390023</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5347,7 +5367,7 @@
         <v>-4586.344625390024</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5380,7 +5400,7 @@
         <v>-4586.344625390024</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5413,7 +5433,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5446,7 +5466,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5479,7 +5499,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5512,7 +5532,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5545,7 +5565,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5578,7 +5598,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5611,7 +5631,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5644,7 +5664,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5677,7 +5697,7 @@
         <v>-4320.736976480024</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5688,6 +5708,6 @@
       <c r="M148" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-12 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1078,14 +1078,10 @@
         <v>-17728.85352733</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>915</v>
-      </c>
-      <c r="J21" t="n">
-        <v>915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1118,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>915</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1157,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>915</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1391,290 +1375,254 @@
         <v>-25158.28652733001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>910.1</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
+      <c r="C31" t="n">
+        <v>910.1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>910.1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>910.1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>60.4329</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-25097.85362733001</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>911</v>
+      </c>
+      <c r="C32" t="n">
+        <v>911</v>
+      </c>
+      <c r="D32" t="n">
+        <v>911</v>
+      </c>
+      <c r="E32" t="n">
+        <v>911</v>
+      </c>
+      <c r="F32" t="n">
+        <v>37.9571</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-25059.89652733001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>913</v>
+      </c>
+      <c r="C33" t="n">
+        <v>913</v>
+      </c>
+      <c r="D33" t="n">
+        <v>913</v>
+      </c>
+      <c r="E33" t="n">
+        <v>913</v>
+      </c>
+      <c r="F33" t="n">
+        <v>18.0593</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-25041.83722733001</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>914</v>
+      </c>
+      <c r="C34" t="n">
+        <v>917</v>
+      </c>
+      <c r="D34" t="n">
+        <v>917</v>
+      </c>
+      <c r="E34" t="n">
+        <v>914</v>
+      </c>
+      <c r="F34" t="n">
+        <v>18.6013</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-25023.23592733001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>913</v>
+      </c>
+      <c r="C35" t="n">
+        <v>913</v>
+      </c>
+      <c r="D35" t="n">
+        <v>913</v>
+      </c>
+      <c r="E35" t="n">
+        <v>913</v>
+      </c>
+      <c r="F35" t="n">
+        <v>19.8807</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-25043.11662733001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>912.1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>912.1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>912.1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>912.1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>80.16970000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-25123.28632733001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>913</v>
+      </c>
+      <c r="J36" t="n">
+        <v>913</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>912.1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>912</v>
+      </c>
+      <c r="D37" t="n">
+        <v>912.1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>912</v>
+      </c>
+      <c r="F37" t="n">
+        <v>84.05719999999999</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-25207.34352733001</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>912.1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>913</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>910.1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>910.1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>910.1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>910.1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>60.4329</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-25097.85362733001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>910</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>911</v>
-      </c>
-      <c r="C32" t="n">
-        <v>911</v>
-      </c>
-      <c r="D32" t="n">
-        <v>911</v>
-      </c>
-      <c r="E32" t="n">
-        <v>911</v>
-      </c>
-      <c r="F32" t="n">
-        <v>37.9571</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-25059.89652733001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>910.1</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>913</v>
-      </c>
-      <c r="C33" t="n">
-        <v>913</v>
-      </c>
-      <c r="D33" t="n">
-        <v>913</v>
-      </c>
-      <c r="E33" t="n">
-        <v>913</v>
-      </c>
-      <c r="F33" t="n">
-        <v>18.0593</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-25041.83722733001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>911</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>914</v>
-      </c>
-      <c r="C34" t="n">
-        <v>917</v>
-      </c>
-      <c r="D34" t="n">
-        <v>917</v>
-      </c>
-      <c r="E34" t="n">
-        <v>914</v>
-      </c>
-      <c r="F34" t="n">
-        <v>18.6013</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-25023.23592733001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>913</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>913</v>
-      </c>
-      <c r="C35" t="n">
-        <v>913</v>
-      </c>
-      <c r="D35" t="n">
-        <v>913</v>
-      </c>
-      <c r="E35" t="n">
-        <v>913</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.8807</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-25043.11662733001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>917</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>912.1</v>
-      </c>
-      <c r="C36" t="n">
-        <v>912.1</v>
-      </c>
-      <c r="D36" t="n">
-        <v>912.1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>912.1</v>
-      </c>
-      <c r="F36" t="n">
-        <v>80.16970000000001</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-25123.28632733001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>913</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>912.1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>912</v>
-      </c>
-      <c r="D37" t="n">
-        <v>912.1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>912</v>
-      </c>
-      <c r="F37" t="n">
-        <v>84.05719999999999</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-25207.34352733001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>912.1</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1708,7 +1656,9 @@
       <c r="I38" t="n">
         <v>912</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>913</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1747,7 +1697,9 @@
       <c r="I39" t="n">
         <v>913</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>913</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1786,7 +1738,9 @@
       <c r="I40" t="n">
         <v>915</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>913</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1825,7 +1779,9 @@
       <c r="I41" t="n">
         <v>919</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>913</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1864,7 +1820,9 @@
       <c r="I42" t="n">
         <v>917</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>913</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1903,7 +1861,9 @@
       <c r="I43" t="n">
         <v>920</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>913</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1942,7 +1902,9 @@
       <c r="I44" t="n">
         <v>919.9</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>913</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1981,7 +1943,9 @@
       <c r="I45" t="n">
         <v>927</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>913</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2020,7 +1984,9 @@
       <c r="I46" t="n">
         <v>926</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>913</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2054,10 +2020,14 @@
         <v>-24980.77476403001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>926</v>
+      </c>
+      <c r="J47" t="n">
+        <v>913</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2094,7 +2064,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>913</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2131,7 +2103,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>913</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2168,7 +2142,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>913</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2205,7 +2181,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>913</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2242,7 +2220,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>913</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2279,7 +2259,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>913</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2316,7 +2298,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>913</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2353,7 +2337,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>913</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2390,7 +2376,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>913</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2427,7 +2415,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>913</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2464,7 +2454,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>913</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2501,7 +2493,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>913</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2538,7 +2532,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>913</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2575,7 +2571,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>913</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2612,7 +2610,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>913</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2649,7 +2649,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>913</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2686,7 +2688,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>913</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2723,7 +2727,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>913</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2760,7 +2766,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>913</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2797,7 +2805,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>913</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2834,7 +2844,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>913</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2871,7 +2883,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>913</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2908,7 +2922,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>913</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2945,7 +2961,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>913</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2982,7 +3000,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>913</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3019,7 +3039,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>913</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3056,7 +3078,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>913</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3093,7 +3117,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>913</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3130,7 +3156,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>913</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3167,7 +3195,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>913</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3204,7 +3234,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>913</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,19 +3270,23 @@
         <v>-13819.32886321002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>913</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>1.056336254107338</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.029589704102959</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3275,15 +3311,11 @@
         <v>-8218.163740270018</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3312,15 +3344,11 @@
         <v>-8224.944140270018</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3349,15 +3377,11 @@
         <v>-9995.741640270018</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3386,15 +3410,11 @@
         <v>-9680.131697240018</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3423,15 +3443,11 @@
         <v>-7561.881397240018</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3460,15 +3476,11 @@
         <v>-7561.881397240018</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3497,15 +3509,11 @@
         <v>-8523.825897240018</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3534,15 +3542,11 @@
         <v>-8040.074697240018</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3571,15 +3575,11 @@
         <v>-13150.79239724002</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3608,15 +3608,11 @@
         <v>-13050.79239724002</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3645,15 +3641,11 @@
         <v>-12950.79239724002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3682,15 +3674,11 @@
         <v>-12906.39239724002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3719,15 +3707,11 @@
         <v>-12616.39239724002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3756,15 +3740,11 @@
         <v>-12200.17239724002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3793,15 +3773,11 @@
         <v>-10076.24619724002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3830,15 +3806,11 @@
         <v>-20222.97339400002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3871,11 +3843,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3908,11 +3876,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3945,11 +3909,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +3942,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4019,11 +3975,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4056,11 +4008,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4093,11 +4041,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4130,11 +4074,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4163,15 +4103,11 @@
         <v>-12847.55369400002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4200,15 +4136,11 @@
         <v>-12822.55369400002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4237,15 +4169,11 @@
         <v>-12822.55369400002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4274,15 +4202,11 @@
         <v>-12647.55369400002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4315,11 +4239,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4352,11 +4272,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4389,11 +4305,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4426,11 +4338,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4463,11 +4371,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4500,11 +4404,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4537,11 +4437,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4574,11 +4470,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4611,11 +4503,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4648,11 +4536,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4685,11 +4569,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4722,11 +4602,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4759,11 +4635,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4796,11 +4668,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4833,11 +4701,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4870,11 +4734,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4903,16 +4763,14 @@
         <v>-3553.743477810023</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
       <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
@@ -5037,7 +4895,7 @@
         <v>-3651.096677810023</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5070,7 +4928,7 @@
         <v>-2901.096777810023</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5103,7 +4961,7 @@
         <v>-2899.596272250023</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5136,7 +4994,7 @@
         <v>-2899.596272250023</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5169,7 +5027,7 @@
         <v>-2899.596272250023</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5202,7 +5060,7 @@
         <v>-2941.896272250023</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5235,7 +5093,7 @@
         <v>-2940.397525390023</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5268,7 +5126,7 @@
         <v>-4197.487425390023</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5301,7 +5159,7 @@
         <v>-4197.487425390023</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5334,7 +5192,7 @@
         <v>-2899.704625390023</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5367,7 +5225,7 @@
         <v>-4586.344625390024</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5400,7 +5258,7 @@
         <v>-4586.344625390024</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5433,7 +5291,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5466,7 +5324,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5499,7 +5357,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5532,7 +5390,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5565,7 +5423,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5598,7 +5456,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5631,7 +5489,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5664,7 +5522,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5697,7 +5555,7 @@
         <v>-4320.736976480024</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5708,6 +5566,6 @@
       <c r="M148" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-12 BackTest WAVES.xlsx
@@ -1540,10 +1540,14 @@
         <v>-25043.11662733001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>917</v>
+      </c>
+      <c r="J35" t="n">
+        <v>917</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
@@ -1579,9 +1583,13 @@
         <v>913</v>
       </c>
       <c r="J36" t="n">
-        <v>913</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1616,7 +1624,7 @@
         <v>912.1</v>
       </c>
       <c r="J37" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1657,7 +1665,7 @@
         <v>912</v>
       </c>
       <c r="J38" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1698,7 +1706,7 @@
         <v>913</v>
       </c>
       <c r="J39" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1739,7 +1747,7 @@
         <v>915</v>
       </c>
       <c r="J40" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1780,7 +1788,7 @@
         <v>919</v>
       </c>
       <c r="J41" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1821,7 +1829,7 @@
         <v>917</v>
       </c>
       <c r="J42" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1862,7 +1870,7 @@
         <v>920</v>
       </c>
       <c r="J43" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1903,7 +1911,7 @@
         <v>919.9</v>
       </c>
       <c r="J44" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -1944,7 +1952,7 @@
         <v>927</v>
       </c>
       <c r="J45" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -1985,7 +1993,7 @@
         <v>926</v>
       </c>
       <c r="J46" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2026,7 +2034,7 @@
         <v>926</v>
       </c>
       <c r="J47" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2061,11 +2069,13 @@
         <v>-24231.83666403002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>928</v>
+      </c>
       <c r="J48" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2100,11 +2110,13 @@
         <v>-24441.83666403002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>934.9</v>
+      </c>
       <c r="J49" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2139,11 +2151,13 @@
         <v>-24495.65806403002</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>932</v>
+      </c>
       <c r="J50" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2178,11 +2192,13 @@
         <v>-24495.65806403002</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>929</v>
+      </c>
       <c r="J51" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2217,11 +2233,13 @@
         <v>-24495.65806403002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>929</v>
+      </c>
       <c r="J52" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2256,11 +2274,13 @@
         <v>-23335.22516403002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>929</v>
+      </c>
       <c r="J53" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2295,11 +2315,13 @@
         <v>-23335.22516403002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>930.9</v>
+      </c>
       <c r="J54" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2334,11 +2356,13 @@
         <v>-22982.77406403002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>930.9</v>
+      </c>
       <c r="J55" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2373,11 +2397,13 @@
         <v>-22946.33636403002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>934</v>
+      </c>
       <c r="J56" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2412,11 +2438,13 @@
         <v>-22947.63226403002</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>937</v>
+      </c>
       <c r="J57" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2451,11 +2479,13 @@
         <v>-22607.61876403002</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>933</v>
+      </c>
       <c r="J58" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2490,11 +2520,13 @@
         <v>-20486.09346403002</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>937</v>
+      </c>
       <c r="J59" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2533,7 +2565,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2568,11 +2600,13 @@
         <v>-19249.51436403002</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>941</v>
+      </c>
       <c r="J61" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2607,11 +2641,13 @@
         <v>-19088.33546403002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>942</v>
+      </c>
       <c r="J62" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2650,7 +2686,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2689,7 +2725,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2728,7 +2764,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2767,7 +2803,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2806,7 +2842,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2845,7 +2881,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2884,7 +2920,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2923,7 +2959,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2962,7 +2998,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3001,7 +3037,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3040,7 +3076,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3079,7 +3115,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3118,7 +3154,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3157,7 +3193,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3196,7 +3232,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3235,7 +3271,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3270,23 +3306,21 @@
         <v>-13819.32886321002</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.056336254107338</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1.029589704102959</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3311,11 +3345,17 @@
         <v>-8218.163740270018</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>917</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3344,11 +3384,17 @@
         <v>-8224.944140270018</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>917</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3377,11 +3423,17 @@
         <v>-9995.741640270018</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>917</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3410,11 +3462,17 @@
         <v>-9680.131697240018</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>917</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3443,11 +3501,17 @@
         <v>-7561.881397240018</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>917</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3476,11 +3540,17 @@
         <v>-7561.881397240018</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>917</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3509,11 +3579,17 @@
         <v>-8523.825897240018</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>917</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3542,11 +3618,17 @@
         <v>-8040.074697240018</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>917</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3575,11 +3657,17 @@
         <v>-13150.79239724002</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>917</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3608,11 +3696,17 @@
         <v>-13050.79239724002</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>917</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3641,11 +3735,17 @@
         <v>-12950.79239724002</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>917</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3674,11 +3774,17 @@
         <v>-12906.39239724002</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>917</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3707,11 +3813,17 @@
         <v>-12616.39239724002</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>917</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3740,11 +3852,17 @@
         <v>-12200.17239724002</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>917</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3773,11 +3891,17 @@
         <v>-10076.24619724002</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>917</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3806,11 +3930,17 @@
         <v>-20222.97339400002</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>917</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3842,8 +3972,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>917</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3875,8 +4011,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>917</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3908,8 +4050,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>917</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3941,8 +4089,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>917</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3974,8 +4128,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>917</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4007,8 +4167,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>917</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4040,8 +4206,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>917</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4073,8 +4245,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>917</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4103,11 +4281,17 @@
         <v>-12847.55369400002</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>917</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4136,11 +4320,17 @@
         <v>-12822.55369400002</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>917</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4169,11 +4359,17 @@
         <v>-12822.55369400002</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>917</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4202,11 +4398,17 @@
         <v>-12647.55369400002</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>917</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4238,8 +4440,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>917</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4271,8 +4479,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>917</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4304,8 +4518,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>917</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4337,8 +4557,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>917</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4370,8 +4596,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>917</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4403,8 +4635,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>917</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4436,8 +4674,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>917</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4469,8 +4713,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>917</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4502,8 +4752,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>917</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4535,8 +4791,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>917</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4568,8 +4830,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>917</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4601,8 +4869,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>917</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4634,8 +4908,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>917</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4667,8 +4947,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>917</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4700,8 +4986,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>917</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4730,15 +5022,23 @@
         <v>-4385.270977810023</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>917</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>1.082241003271538</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1.029589704102959</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4763,7 +5063,7 @@
         <v>-3553.743477810023</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4796,7 +5096,7 @@
         <v>-2216.759577810023</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4829,7 +5129,7 @@
         <v>-2277.720077810023</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4862,7 +5162,7 @@
         <v>-3772.510177810023</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4961,7 +5261,7 @@
         <v>-2899.596272250023</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4994,7 +5294,7 @@
         <v>-2899.596272250023</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5027,7 +5327,7 @@
         <v>-2899.596272250023</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5060,7 +5360,7 @@
         <v>-2941.896272250023</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5093,7 +5393,7 @@
         <v>-2940.397525390023</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5126,7 +5426,7 @@
         <v>-4197.487425390023</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5225,7 +5525,7 @@
         <v>-4586.344625390024</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5258,7 +5558,7 @@
         <v>-4586.344625390024</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5324,7 +5624,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5357,7 +5657,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5390,7 +5690,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5423,7 +5723,7 @@
         <v>-4498.989176480024</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5456,7 +5756,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5489,7 +5789,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5522,7 +5822,7 @@
         <v>-4448.989176480024</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5555,7 +5855,7 @@
         <v>-4320.736976480024</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-12 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>-14140.05952733</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>779.7413</v>
       </c>
       <c r="G3" t="n">
-        <v>-14919.80082733</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>866.8</v>
       </c>
       <c r="G4" t="n">
-        <v>-15786.60082733</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>903.3176999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>-15786.60082733</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>408.381</v>
       </c>
       <c r="G6" t="n">
-        <v>-16194.98182733</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>-16194.98182733</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>5.1516</v>
       </c>
       <c r="G8" t="n">
-        <v>-16194.98182733</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>771.9129</v>
       </c>
       <c r="G9" t="n">
-        <v>-16194.98182733</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>892.3035</v>
       </c>
       <c r="G10" t="n">
-        <v>-15302.67832733</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>373.0191</v>
       </c>
       <c r="G11" t="n">
-        <v>-15675.69742733</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>3.9778</v>
       </c>
       <c r="G12" t="n">
-        <v>-15671.71962733</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>52.7</v>
       </c>
       <c r="G13" t="n">
-        <v>-15724.41962733</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>106.986</v>
       </c>
       <c r="G14" t="n">
-        <v>-15831.40562733</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>570.41</v>
       </c>
       <c r="G15" t="n">
-        <v>-16401.81562733</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1243.0674</v>
       </c>
       <c r="G16" t="n">
-        <v>-17644.88302733</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>51.5676</v>
       </c>
       <c r="G17" t="n">
-        <v>-17644.88302733</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>575.4208</v>
       </c>
       <c r="G18" t="n">
-        <v>-18220.30382733</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>481.4503</v>
       </c>
       <c r="G19" t="n">
-        <v>-17738.85352733</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1.2</v>
       </c>
       <c r="G20" t="n">
-        <v>-17738.85352733</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-17728.85352733</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>784.6900000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>-16944.16352733</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>3910.1487</v>
       </c>
       <c r="G23" t="n">
-        <v>-20854.31222733</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>22.347</v>
       </c>
       <c r="G24" t="n">
-        <v>-20876.65922733</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>3902.1487</v>
       </c>
       <c r="G25" t="n">
-        <v>-24778.80792733001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>62.1</v>
       </c>
       <c r="G26" t="n">
-        <v>-24716.70792733001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1.4</v>
       </c>
       <c r="G27" t="n">
-        <v>-24715.30792733001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>329.6271</v>
       </c>
       <c r="G28" t="n">
-        <v>-25044.93502733001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>51.2315</v>
       </c>
       <c r="G29" t="n">
-        <v>-25096.16652733001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>62.12</v>
       </c>
       <c r="G30" t="n">
-        <v>-25158.28652733001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>60.4329</v>
       </c>
       <c r="G31" t="n">
-        <v>-25097.85362733001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>37.9571</v>
       </c>
       <c r="G32" t="n">
-        <v>-25059.89652733001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>18.0593</v>
       </c>
       <c r="G33" t="n">
-        <v>-25041.83722733001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>18.6013</v>
       </c>
       <c r="G34" t="n">
-        <v>-25023.23592733001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,22 +1433,19 @@
         <v>19.8807</v>
       </c>
       <c r="G35" t="n">
-        <v>-25043.11662733001</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>917</v>
       </c>
       <c r="I35" t="n">
         <v>917</v>
       </c>
-      <c r="J35" t="n">
-        <v>917</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1574,26 +1467,21 @@
         <v>80.16970000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>-25123.28632733001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>913</v>
-      </c>
-      <c r="J36" t="n">
-        <v>917</v>
-      </c>
-      <c r="K36" t="inlineStr">
+        <v>917</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1615,26 +1503,23 @@
         <v>84.05719999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>-25207.34352733001</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>912.1</v>
       </c>
       <c r="I37" t="n">
-        <v>912.1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>917</v>
-      </c>
-      <c r="K37" t="inlineStr">
+        <v>917</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1656,26 +1541,23 @@
         <v>356.5428</v>
       </c>
       <c r="G38" t="n">
-        <v>-24850.80072733001</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>912</v>
       </c>
       <c r="I38" t="n">
-        <v>912</v>
-      </c>
-      <c r="J38" t="n">
-        <v>917</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1697,26 +1579,23 @@
         <v>34.1182</v>
       </c>
       <c r="G39" t="n">
-        <v>-24816.68252733001</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>913</v>
       </c>
       <c r="I39" t="n">
-        <v>913</v>
-      </c>
-      <c r="J39" t="n">
-        <v>917</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1738,26 +1617,23 @@
         <v>85.59999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>-24731.08252733001</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>915</v>
       </c>
       <c r="I40" t="n">
-        <v>915</v>
-      </c>
-      <c r="J40" t="n">
-        <v>917</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1779,26 +1655,23 @@
         <v>136.9311</v>
       </c>
       <c r="G41" t="n">
-        <v>-24868.01362733001</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>919</v>
       </c>
       <c r="I41" t="n">
-        <v>919</v>
-      </c>
-      <c r="J41" t="n">
-        <v>917</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1820,26 +1693,23 @@
         <v>106.1469</v>
       </c>
       <c r="G42" t="n">
-        <v>-24761.86672733001</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>917</v>
       </c>
       <c r="I42" t="n">
         <v>917</v>
       </c>
-      <c r="J42" t="n">
-        <v>917</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1861,26 +1731,23 @@
         <v>225</v>
       </c>
       <c r="G43" t="n">
-        <v>-24986.86672733001</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>920</v>
       </c>
       <c r="I43" t="n">
-        <v>920</v>
-      </c>
-      <c r="J43" t="n">
-        <v>917</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1902,26 +1769,23 @@
         <v>215.8720507</v>
       </c>
       <c r="G44" t="n">
-        <v>-24770.99467663001</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>919.9</v>
       </c>
       <c r="I44" t="n">
-        <v>919.9</v>
-      </c>
-      <c r="J44" t="n">
-        <v>917</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1943,26 +1807,23 @@
         <v>269.9834874</v>
       </c>
       <c r="G45" t="n">
-        <v>-25040.97816403001</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>927</v>
       </c>
       <c r="I45" t="n">
-        <v>927</v>
-      </c>
-      <c r="J45" t="n">
-        <v>917</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1984,26 +1845,21 @@
         <v>5.5688</v>
       </c>
       <c r="G46" t="n">
-        <v>-25040.97816403001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>926</v>
-      </c>
-      <c r="J46" t="n">
-        <v>917</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2025,26 +1881,21 @@
         <v>60.2034</v>
       </c>
       <c r="G47" t="n">
-        <v>-24980.77476403001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>926</v>
-      </c>
-      <c r="J47" t="n">
-        <v>917</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2066,26 +1917,21 @@
         <v>748.9381</v>
       </c>
       <c r="G48" t="n">
-        <v>-24231.83666403002</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>928</v>
-      </c>
-      <c r="J48" t="n">
-        <v>917</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,26 +1953,21 @@
         <v>210</v>
       </c>
       <c r="G49" t="n">
-        <v>-24441.83666403002</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>934.9</v>
-      </c>
-      <c r="J49" t="n">
-        <v>917</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2148,26 +1989,21 @@
         <v>53.8214</v>
       </c>
       <c r="G50" t="n">
-        <v>-24495.65806403002</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>932</v>
-      </c>
-      <c r="J50" t="n">
-        <v>917</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2189,26 +2025,21 @@
         <v>26</v>
       </c>
       <c r="G51" t="n">
-        <v>-24495.65806403002</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>929</v>
-      </c>
-      <c r="J51" t="n">
-        <v>917</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2230,26 +2061,21 @@
         <v>460.1843</v>
       </c>
       <c r="G52" t="n">
-        <v>-24495.65806403002</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>929</v>
-      </c>
-      <c r="J52" t="n">
-        <v>917</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2271,26 +2097,21 @@
         <v>1160.4329</v>
       </c>
       <c r="G53" t="n">
-        <v>-23335.22516403002</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>929</v>
-      </c>
-      <c r="J53" t="n">
-        <v>917</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2312,26 +2133,21 @@
         <v>412.9663</v>
       </c>
       <c r="G54" t="n">
-        <v>-23335.22516403002</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>930.9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>917</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2353,26 +2169,21 @@
         <v>352.4511</v>
       </c>
       <c r="G55" t="n">
-        <v>-22982.77406403002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>930.9</v>
-      </c>
-      <c r="J55" t="n">
-        <v>917</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2394,26 +2205,21 @@
         <v>36.4377</v>
       </c>
       <c r="G56" t="n">
-        <v>-22946.33636403002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>934</v>
-      </c>
-      <c r="J56" t="n">
-        <v>917</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2435,26 +2241,21 @@
         <v>1.2959</v>
       </c>
       <c r="G57" t="n">
-        <v>-22947.63226403002</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>937</v>
-      </c>
-      <c r="J57" t="n">
-        <v>917</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2476,26 +2277,21 @@
         <v>340.0135</v>
       </c>
       <c r="G58" t="n">
-        <v>-22607.61876403002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>933</v>
-      </c>
-      <c r="J58" t="n">
-        <v>917</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2517,26 +2313,21 @@
         <v>2121.5253</v>
       </c>
       <c r="G59" t="n">
-        <v>-20486.09346403002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>937</v>
-      </c>
-      <c r="J59" t="n">
-        <v>917</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2558,24 +2349,21 @@
         <v>5.2849</v>
       </c>
       <c r="G60" t="n">
-        <v>-20480.80856403002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>917</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>917</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2597,26 +2385,21 @@
         <v>1231.2942</v>
       </c>
       <c r="G61" t="n">
-        <v>-19249.51436403002</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>941</v>
-      </c>
-      <c r="J61" t="n">
-        <v>917</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2638,26 +2421,21 @@
         <v>161.1789</v>
       </c>
       <c r="G62" t="n">
-        <v>-19088.33546403002</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>942</v>
-      </c>
-      <c r="J62" t="n">
-        <v>917</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>917</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2679,24 +2457,21 @@
         <v>314.4223</v>
       </c>
       <c r="G63" t="n">
-        <v>-18773.91316403002</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>917</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>917</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2718,24 +2493,21 @@
         <v>293.9951</v>
       </c>
       <c r="G64" t="n">
-        <v>-18479.91806403002</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>917</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>917</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2757,24 +2529,21 @@
         <v>1340.0369</v>
       </c>
       <c r="G65" t="n">
-        <v>-19819.95496403002</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>917</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>917</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2796,24 +2565,21 @@
         <v>238.628</v>
       </c>
       <c r="G66" t="n">
-        <v>-19581.32696403002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>917</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>917</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2835,24 +2601,21 @@
         <v>358.8793</v>
       </c>
       <c r="G67" t="n">
-        <v>-19222.44766403002</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>917</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>917</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2874,24 +2637,21 @@
         <v>120.8037</v>
       </c>
       <c r="G68" t="n">
-        <v>-19101.64396403002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>917</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>917</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2913,24 +2673,21 @@
         <v>221.4277</v>
       </c>
       <c r="G69" t="n">
-        <v>-18880.21626403002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>917</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>917</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2952,24 +2709,21 @@
         <v>36.6401</v>
       </c>
       <c r="G70" t="n">
-        <v>-18880.21626403002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>917</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>917</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2991,24 +2745,21 @@
         <v>1441.6513</v>
       </c>
       <c r="G71" t="n">
-        <v>-17438.56496403002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>917</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>917</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3030,24 +2781,21 @@
         <v>95.7987</v>
       </c>
       <c r="G72" t="n">
-        <v>-17438.56496403002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>917</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>917</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3069,24 +2817,21 @@
         <v>1676.3252</v>
       </c>
       <c r="G73" t="n">
-        <v>-17438.56496403002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>917</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>917</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3108,24 +2853,21 @@
         <v>249.4577</v>
       </c>
       <c r="G74" t="n">
-        <v>-17189.10726403002</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>917</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>917</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3147,24 +2889,21 @@
         <v>159.5753</v>
       </c>
       <c r="G75" t="n">
-        <v>-17029.53196403002</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>917</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>917</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3186,24 +2925,21 @@
         <v>129.7869</v>
       </c>
       <c r="G76" t="n">
-        <v>-16899.74506403002</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>917</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>917</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3225,24 +2961,21 @@
         <v>254.4326</v>
       </c>
       <c r="G77" t="n">
-        <v>-16899.74506403002</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>917</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>917</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3264,24 +2997,21 @@
         <v>130.2769</v>
       </c>
       <c r="G78" t="n">
-        <v>-16769.46816403002</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>917</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>917</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3303,24 +3033,21 @@
         <v>2950.13930082</v>
       </c>
       <c r="G79" t="n">
-        <v>-13819.32886321002</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>917</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>917</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3342,24 +3069,21 @@
         <v>5601.16512294</v>
       </c>
       <c r="G80" t="n">
-        <v>-8218.163740270018</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>917</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>917</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3381,24 +3105,21 @@
         <v>6.7804</v>
       </c>
       <c r="G81" t="n">
-        <v>-8224.944140270018</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>917</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>917</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3420,24 +3141,21 @@
         <v>1770.7975</v>
       </c>
       <c r="G82" t="n">
-        <v>-9995.741640270018</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>917</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>917</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3459,24 +3177,21 @@
         <v>315.60994303</v>
       </c>
       <c r="G83" t="n">
-        <v>-9680.131697240018</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>917</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>917</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3498,24 +3213,21 @@
         <v>2118.2503</v>
       </c>
       <c r="G84" t="n">
-        <v>-7561.881397240018</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>917</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>917</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3537,24 +3249,21 @@
         <v>3272.2283</v>
       </c>
       <c r="G85" t="n">
-        <v>-7561.881397240018</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>917</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>917</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3576,24 +3285,21 @@
         <v>961.9444999999999</v>
       </c>
       <c r="G86" t="n">
-        <v>-8523.825897240018</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>917</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>917</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3615,24 +3321,21 @@
         <v>483.7512</v>
       </c>
       <c r="G87" t="n">
-        <v>-8040.074697240018</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>917</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>917</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3654,24 +3357,21 @@
         <v>5110.7177</v>
       </c>
       <c r="G88" t="n">
-        <v>-13150.79239724002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>917</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>917</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3693,24 +3393,21 @@
         <v>100</v>
       </c>
       <c r="G89" t="n">
-        <v>-13050.79239724002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>917</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>917</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3732,24 +3429,21 @@
         <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>-12950.79239724002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>917</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>917</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3771,24 +3465,21 @@
         <v>44.4</v>
       </c>
       <c r="G91" t="n">
-        <v>-12906.39239724002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>917</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>917</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3810,24 +3501,21 @@
         <v>290</v>
       </c>
       <c r="G92" t="n">
-        <v>-12616.39239724002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>917</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>917</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3849,24 +3537,21 @@
         <v>416.22</v>
       </c>
       <c r="G93" t="n">
-        <v>-12200.17239724002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>917</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>917</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3888,24 +3573,21 @@
         <v>2123.9262</v>
       </c>
       <c r="G94" t="n">
-        <v>-10076.24619724002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>917</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>917</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3927,24 +3609,21 @@
         <v>10146.72719676</v>
       </c>
       <c r="G95" t="n">
-        <v>-20222.97339400002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>917</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>917</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3966,24 +3645,21 @@
         <v>2190.1298</v>
       </c>
       <c r="G96" t="n">
-        <v>-18032.84359400002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>917</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>917</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4005,24 +3681,21 @@
         <v>4953.4574</v>
       </c>
       <c r="G97" t="n">
-        <v>-13079.38619400002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>917</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>917</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4044,24 +3717,21 @@
         <v>386.0025</v>
       </c>
       <c r="G98" t="n">
-        <v>-12693.38369400002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>917</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>917</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4083,24 +3753,21 @@
         <v>130.1511</v>
       </c>
       <c r="G99" t="n">
-        <v>-12693.38369400002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>917</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>917</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4122,24 +3789,21 @@
         <v>1173.17</v>
       </c>
       <c r="G100" t="n">
-        <v>-13866.55369400002</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>917</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>917</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4161,24 +3825,21 @@
         <v>615</v>
       </c>
       <c r="G101" t="n">
-        <v>-13251.55369400002</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>917</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>917</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4200,24 +3861,21 @@
         <v>515</v>
       </c>
       <c r="G102" t="n">
-        <v>-13251.55369400002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>917</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>917</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4239,24 +3897,21 @@
         <v>446</v>
       </c>
       <c r="G103" t="n">
-        <v>-13251.55369400002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>917</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>917</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4278,24 +3933,21 @@
         <v>404</v>
       </c>
       <c r="G104" t="n">
-        <v>-12847.55369400002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>917</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>917</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4317,24 +3969,21 @@
         <v>25</v>
       </c>
       <c r="G105" t="n">
-        <v>-12822.55369400002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>917</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>917</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4356,24 +4005,21 @@
         <v>145</v>
       </c>
       <c r="G106" t="n">
-        <v>-12822.55369400002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>917</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>917</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4395,24 +4041,21 @@
         <v>175</v>
       </c>
       <c r="G107" t="n">
-        <v>-12647.55369400002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>917</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>917</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4434,24 +4077,21 @@
         <v>505.8401</v>
       </c>
       <c r="G108" t="n">
-        <v>-12141.71359400002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>917</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>917</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4473,24 +4113,21 @@
         <v>1590.2807</v>
       </c>
       <c r="G109" t="n">
-        <v>-12141.71359400002</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>917</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>917</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4512,24 +4149,21 @@
         <v>2165.1186</v>
       </c>
       <c r="G110" t="n">
-        <v>-9976.594994000025</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>917</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>917</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4551,24 +4185,21 @@
         <v>297.5684</v>
       </c>
       <c r="G111" t="n">
-        <v>-9976.594994000025</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>917</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>917</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4590,24 +4221,21 @@
         <v>5.2618</v>
       </c>
       <c r="G112" t="n">
-        <v>-9981.856794000025</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>917</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>917</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4629,24 +4257,21 @@
         <v>61.3</v>
       </c>
       <c r="G113" t="n">
-        <v>-10043.15679400002</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>917</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>917</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4668,24 +4293,21 @@
         <v>13.0497</v>
       </c>
       <c r="G114" t="n">
-        <v>-10043.15679400002</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>917</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>917</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4707,24 +4329,21 @@
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>-10042.15679400002</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>917</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>917</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4746,24 +4365,21 @@
         <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>-10040.15679400002</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>917</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>917</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4785,24 +4401,23 @@
         <v>5480.7058899</v>
       </c>
       <c r="G117" t="n">
-        <v>-4559.450904100024</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>917</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>917</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1.07984187568157</v>
       </c>
       <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>1.029589704102959</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4824,24 +4439,15 @@
         <v>28.49</v>
       </c>
       <c r="G118" t="n">
-        <v>-4559.450904100024</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>917</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4863,24 +4469,15 @@
         <v>96.6108</v>
       </c>
       <c r="G119" t="n">
-        <v>-4656.061704100024</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>917</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4902,24 +4499,15 @@
         <v>312.2216</v>
       </c>
       <c r="G120" t="n">
-        <v>-4968.283304100024</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>917</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4941,24 +4529,15 @@
         <v>1362.3233</v>
       </c>
       <c r="G121" t="n">
-        <v>-3605.960004100024</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>917</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4980,24 +4559,15 @@
         <v>720.0806262900001</v>
       </c>
       <c r="G122" t="n">
-        <v>-2885.879377810024</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>917</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5019,26 +4589,15 @@
         <v>1499.3916</v>
       </c>
       <c r="G123" t="n">
-        <v>-4385.270977810023</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>917</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1.082241003271538</v>
-      </c>
-      <c r="M123" t="n">
-        <v>1.029589704102959</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5060,18 +4619,15 @@
         <v>831.5275</v>
       </c>
       <c r="G124" t="n">
-        <v>-3553.743477810023</v>
-      </c>
-      <c r="H124" t="n">
         <v>2</v>
       </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5093,18 +4649,15 @@
         <v>1336.9839</v>
       </c>
       <c r="G125" t="n">
-        <v>-2216.759577810023</v>
-      </c>
-      <c r="H125" t="n">
         <v>2</v>
       </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5126,18 +4679,15 @@
         <v>60.9605</v>
       </c>
       <c r="G126" t="n">
-        <v>-2277.720077810023</v>
-      </c>
-      <c r="H126" t="n">
         <v>2</v>
       </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5159,18 +4709,15 @@
         <v>1494.7901</v>
       </c>
       <c r="G127" t="n">
-        <v>-3772.510177810023</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5192,18 +4739,15 @@
         <v>121.4135</v>
       </c>
       <c r="G128" t="n">
-        <v>-3651.096677810023</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5225,18 +4769,15 @@
         <v>749.9999</v>
       </c>
       <c r="G129" t="n">
-        <v>-2901.096777810023</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5258,18 +4799,15 @@
         <v>1.50050556</v>
       </c>
       <c r="G130" t="n">
-        <v>-2899.596272250023</v>
-      </c>
-      <c r="H130" t="n">
         <v>2</v>
       </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5291,18 +4829,15 @@
         <v>942.8685</v>
       </c>
       <c r="G131" t="n">
-        <v>-2899.596272250023</v>
-      </c>
-      <c r="H131" t="n">
         <v>2</v>
       </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5324,18 +4859,15 @@
         <v>11.01499973</v>
       </c>
       <c r="G132" t="n">
-        <v>-2899.596272250023</v>
-      </c>
-      <c r="H132" t="n">
         <v>2</v>
       </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5357,18 +4889,15 @@
         <v>42.3</v>
       </c>
       <c r="G133" t="n">
-        <v>-2941.896272250023</v>
-      </c>
-      <c r="H133" t="n">
         <v>2</v>
       </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5390,18 +4919,15 @@
         <v>1.49874686</v>
       </c>
       <c r="G134" t="n">
-        <v>-2940.397525390023</v>
-      </c>
-      <c r="H134" t="n">
         <v>2</v>
       </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5423,18 +4949,15 @@
         <v>1257.0899</v>
       </c>
       <c r="G135" t="n">
-        <v>-4197.487425390023</v>
-      </c>
-      <c r="H135" t="n">
         <v>2</v>
       </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5456,18 +4979,15 @@
         <v>619.1437</v>
       </c>
       <c r="G136" t="n">
-        <v>-4197.487425390023</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5489,18 +5009,15 @@
         <v>1297.7828</v>
       </c>
       <c r="G137" t="n">
-        <v>-2899.704625390023</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5522,18 +5039,15 @@
         <v>1686.64</v>
       </c>
       <c r="G138" t="n">
-        <v>-4586.344625390024</v>
-      </c>
-      <c r="H138" t="n">
         <v>2</v>
       </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5555,18 +5069,15 @@
         <v>4538.1458</v>
       </c>
       <c r="G139" t="n">
-        <v>-4586.344625390024</v>
-      </c>
-      <c r="H139" t="n">
         <v>2</v>
       </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5588,18 +5099,15 @@
         <v>137.35544891</v>
       </c>
       <c r="G140" t="n">
-        <v>-4448.989176480024</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5621,18 +5129,15 @@
         <v>50</v>
       </c>
       <c r="G141" t="n">
-        <v>-4498.989176480024</v>
-      </c>
-      <c r="H141" t="n">
         <v>2</v>
       </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5654,18 +5159,15 @@
         <v>781.9988</v>
       </c>
       <c r="G142" t="n">
-        <v>-4498.989176480024</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5687,18 +5189,15 @@
         <v>1563.69</v>
       </c>
       <c r="G143" t="n">
-        <v>-4498.989176480024</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5720,18 +5219,15 @@
         <v>593.4605</v>
       </c>
       <c r="G144" t="n">
-        <v>-4498.989176480024</v>
-      </c>
-      <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5753,18 +5249,15 @@
         <v>50</v>
       </c>
       <c r="G145" t="n">
-        <v>-4448.989176480024</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5786,18 +5279,15 @@
         <v>25</v>
       </c>
       <c r="G146" t="n">
-        <v>-4448.989176480024</v>
-      </c>
-      <c r="H146" t="n">
         <v>2</v>
       </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5819,18 +5309,15 @@
         <v>25</v>
       </c>
       <c r="G147" t="n">
-        <v>-4448.989176480024</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5852,18 +5339,15 @@
         <v>128.2522</v>
       </c>
       <c r="G148" t="n">
-        <v>-4320.736976480024</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
